--- a/Diabetes Data Report.xlsx
+++ b/Diabetes Data Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\Diabetes_Predictive_Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6247AA52-F332-4518-AE3D-FA7A0C028822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08D86A3-F3CC-4857-B91D-C8455D29288C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E81F93B8-AC09-4892-B642-1733EB536BCC}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Pregnancies</t>
   </si>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t>Diabetes_Pedigree_Function</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Blood_Pressure</t>
@@ -959,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -968,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -1005,8 +999,8 @@
       <c r="H2">
         <v>50</v>
       </c>
-      <c r="I2" t="s">
-        <v>7</v>
+      <c r="I2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1034,8 +1028,8 @@
       <c r="H3">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
-        <v>8</v>
+      <c r="I3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1063,8 +1057,8 @@
       <c r="H4">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
-        <v>7</v>
+      <c r="I4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1092,8 +1086,8 @@
       <c r="H5">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
-        <v>8</v>
+      <c r="I5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1121,8 +1115,8 @@
       <c r="H6">
         <v>33</v>
       </c>
-      <c r="I6" t="s">
-        <v>7</v>
+      <c r="I6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1150,8 +1144,8 @@
       <c r="H7">
         <v>30</v>
       </c>
-      <c r="I7" t="s">
-        <v>8</v>
+      <c r="I7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1179,8 +1173,8 @@
       <c r="H8">
         <v>26</v>
       </c>
-      <c r="I8" t="s">
-        <v>7</v>
+      <c r="I8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1208,8 +1202,8 @@
       <c r="H9">
         <v>29</v>
       </c>
-      <c r="I9" t="s">
-        <v>8</v>
+      <c r="I9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1237,8 +1231,8 @@
       <c r="H10">
         <v>53</v>
       </c>
-      <c r="I10" t="s">
-        <v>7</v>
+      <c r="I10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1266,8 +1260,8 @@
       <c r="H11">
         <v>54</v>
       </c>
-      <c r="I11" t="s">
-        <v>7</v>
+      <c r="I11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1295,8 +1289,8 @@
       <c r="H12">
         <v>30</v>
       </c>
-      <c r="I12" t="s">
-        <v>8</v>
+      <c r="I12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1324,8 +1318,8 @@
       <c r="H13">
         <v>34</v>
       </c>
-      <c r="I13" t="s">
-        <v>7</v>
+      <c r="I13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1353,8 +1347,8 @@
       <c r="H14">
         <v>57</v>
       </c>
-      <c r="I14" t="s">
-        <v>8</v>
+      <c r="I14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1382,8 +1376,8 @@
       <c r="H15">
         <v>59</v>
       </c>
-      <c r="I15" t="s">
-        <v>7</v>
+      <c r="I15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1411,8 +1405,8 @@
       <c r="H16">
         <v>51</v>
       </c>
-      <c r="I16" t="s">
-        <v>7</v>
+      <c r="I16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1440,8 +1434,8 @@
       <c r="H17">
         <v>32</v>
       </c>
-      <c r="I17" t="s">
-        <v>7</v>
+      <c r="I17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1469,8 +1463,8 @@
       <c r="H18">
         <v>31</v>
       </c>
-      <c r="I18" t="s">
-        <v>7</v>
+      <c r="I18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1498,8 +1492,8 @@
       <c r="H19">
         <v>31</v>
       </c>
-      <c r="I19" t="s">
-        <v>7</v>
+      <c r="I19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1527,8 +1521,8 @@
       <c r="H20">
         <v>33</v>
       </c>
-      <c r="I20" t="s">
-        <v>8</v>
+      <c r="I20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1556,8 +1550,8 @@
       <c r="H21">
         <v>32</v>
       </c>
-      <c r="I21" t="s">
-        <v>7</v>
+      <c r="I21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1585,8 +1579,8 @@
       <c r="H22">
         <v>27</v>
       </c>
-      <c r="I22" t="s">
-        <v>8</v>
+      <c r="I22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1614,8 +1608,8 @@
       <c r="H23">
         <v>50</v>
       </c>
-      <c r="I23" t="s">
-        <v>8</v>
+      <c r="I23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1643,8 +1637,8 @@
       <c r="H24">
         <v>41</v>
       </c>
-      <c r="I24" t="s">
-        <v>7</v>
+      <c r="I24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1672,8 +1666,8 @@
       <c r="H25">
         <v>29</v>
       </c>
-      <c r="I25" t="s">
-        <v>7</v>
+      <c r="I25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1701,8 +1695,8 @@
       <c r="H26">
         <v>51</v>
       </c>
-      <c r="I26" t="s">
-        <v>7</v>
+      <c r="I26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1730,8 +1724,8 @@
       <c r="H27">
         <v>41</v>
       </c>
-      <c r="I27" t="s">
-        <v>7</v>
+      <c r="I27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1759,8 +1753,8 @@
       <c r="H28">
         <v>43</v>
       </c>
-      <c r="I28" t="s">
-        <v>7</v>
+      <c r="I28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1788,8 +1782,8 @@
       <c r="H29">
         <v>22</v>
       </c>
-      <c r="I29" t="s">
-        <v>8</v>
+      <c r="I29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1817,8 +1811,8 @@
       <c r="H30">
         <v>57</v>
       </c>
-      <c r="I30" t="s">
-        <v>8</v>
+      <c r="I30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1846,8 +1840,8 @@
       <c r="H31">
         <v>38</v>
       </c>
-      <c r="I31" t="s">
-        <v>8</v>
+      <c r="I31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1875,8 +1869,8 @@
       <c r="H32">
         <v>60</v>
       </c>
-      <c r="I32" t="s">
-        <v>8</v>
+      <c r="I32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1904,8 +1898,8 @@
       <c r="H33">
         <v>28</v>
       </c>
-      <c r="I33" t="s">
-        <v>7</v>
+      <c r="I33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1933,8 +1927,8 @@
       <c r="H34">
         <v>22</v>
       </c>
-      <c r="I34" t="s">
-        <v>8</v>
+      <c r="I34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1962,8 +1956,8 @@
       <c r="H35">
         <v>28</v>
       </c>
-      <c r="I35" t="s">
-        <v>8</v>
+      <c r="I35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1991,8 +1985,8 @@
       <c r="H36">
         <v>45</v>
       </c>
-      <c r="I36" t="s">
-        <v>8</v>
+      <c r="I36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2020,8 +2014,8 @@
       <c r="H37">
         <v>33</v>
       </c>
-      <c r="I37" t="s">
-        <v>8</v>
+      <c r="I37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2049,8 +2043,8 @@
       <c r="H38">
         <v>35</v>
       </c>
-      <c r="I38" t="s">
-        <v>8</v>
+      <c r="I38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2078,8 +2072,8 @@
       <c r="H39">
         <v>46</v>
       </c>
-      <c r="I39" t="s">
-        <v>7</v>
+      <c r="I39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2107,8 +2101,8 @@
       <c r="H40">
         <v>27</v>
       </c>
-      <c r="I40" t="s">
-        <v>7</v>
+      <c r="I40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2136,8 +2130,8 @@
       <c r="H41">
         <v>56</v>
       </c>
-      <c r="I41" t="s">
-        <v>7</v>
+      <c r="I41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2165,8 +2159,8 @@
       <c r="H42">
         <v>26</v>
       </c>
-      <c r="I42" t="s">
-        <v>8</v>
+      <c r="I42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2194,8 +2188,8 @@
       <c r="H43">
         <v>37</v>
       </c>
-      <c r="I43" t="s">
-        <v>8</v>
+      <c r="I43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2223,8 +2217,8 @@
       <c r="H44">
         <v>48</v>
       </c>
-      <c r="I44" t="s">
-        <v>8</v>
+      <c r="I44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2252,8 +2246,8 @@
       <c r="H45">
         <v>54</v>
       </c>
-      <c r="I45" t="s">
-        <v>7</v>
+      <c r="I45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2281,8 +2275,8 @@
       <c r="H46">
         <v>40</v>
       </c>
-      <c r="I46" t="s">
-        <v>8</v>
+      <c r="I46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2310,8 +2304,8 @@
       <c r="H47">
         <v>25</v>
       </c>
-      <c r="I47" t="s">
-        <v>7</v>
+      <c r="I47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2339,8 +2333,8 @@
       <c r="H48">
         <v>29</v>
       </c>
-      <c r="I48" t="s">
-        <v>8</v>
+      <c r="I48">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2368,8 +2362,8 @@
       <c r="H49">
         <v>22</v>
       </c>
-      <c r="I49" t="s">
-        <v>8</v>
+      <c r="I49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2397,8 +2391,8 @@
       <c r="H50">
         <v>31</v>
       </c>
-      <c r="I50" t="s">
-        <v>7</v>
+      <c r="I50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2426,8 +2420,8 @@
       <c r="H51">
         <v>24</v>
       </c>
-      <c r="I51" t="s">
-        <v>8</v>
+      <c r="I51">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2455,8 +2449,8 @@
       <c r="H52">
         <v>22</v>
       </c>
-      <c r="I52" t="s">
-        <v>8</v>
+      <c r="I52">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2484,8 +2478,8 @@
       <c r="H53">
         <v>26</v>
       </c>
-      <c r="I53" t="s">
-        <v>8</v>
+      <c r="I53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2513,8 +2507,8 @@
       <c r="H54">
         <v>30</v>
       </c>
-      <c r="I54" t="s">
-        <v>8</v>
+      <c r="I54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2542,8 +2536,8 @@
       <c r="H55">
         <v>58</v>
       </c>
-      <c r="I55" t="s">
-        <v>7</v>
+      <c r="I55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2571,8 +2565,8 @@
       <c r="H56">
         <v>42</v>
       </c>
-      <c r="I56" t="s">
-        <v>8</v>
+      <c r="I56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2600,8 +2594,8 @@
       <c r="H57">
         <v>21</v>
       </c>
-      <c r="I57" t="s">
-        <v>8</v>
+      <c r="I57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2629,8 +2623,8 @@
       <c r="H58">
         <v>41</v>
       </c>
-      <c r="I58" t="s">
-        <v>7</v>
+      <c r="I58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2658,8 +2652,8 @@
       <c r="H59">
         <v>31</v>
       </c>
-      <c r="I59" t="s">
-        <v>8</v>
+      <c r="I59">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2687,8 +2681,8 @@
       <c r="H60">
         <v>44</v>
       </c>
-      <c r="I60" t="s">
-        <v>8</v>
+      <c r="I60">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2716,8 +2710,8 @@
       <c r="H61">
         <v>22</v>
       </c>
-      <c r="I61" t="s">
-        <v>8</v>
+      <c r="I61">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2745,8 +2739,8 @@
       <c r="H62">
         <v>21</v>
       </c>
-      <c r="I62" t="s">
-        <v>8</v>
+      <c r="I62">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2774,8 +2768,8 @@
       <c r="H63">
         <v>39</v>
       </c>
-      <c r="I63" t="s">
-        <v>7</v>
+      <c r="I63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2803,8 +2797,8 @@
       <c r="H64">
         <v>36</v>
       </c>
-      <c r="I64" t="s">
-        <v>8</v>
+      <c r="I64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2832,8 +2826,8 @@
       <c r="H65">
         <v>24</v>
       </c>
-      <c r="I65" t="s">
-        <v>8</v>
+      <c r="I65">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2861,8 +2855,8 @@
       <c r="H66">
         <v>42</v>
       </c>
-      <c r="I66" t="s">
-        <v>7</v>
+      <c r="I66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2890,8 +2884,8 @@
       <c r="H67">
         <v>32</v>
       </c>
-      <c r="I67" t="s">
-        <v>8</v>
+      <c r="I67">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2919,8 +2913,8 @@
       <c r="H68">
         <v>38</v>
       </c>
-      <c r="I68" t="s">
-        <v>7</v>
+      <c r="I68">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2948,8 +2942,8 @@
       <c r="H69">
         <v>54</v>
       </c>
-      <c r="I69" t="s">
-        <v>8</v>
+      <c r="I69">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2977,8 +2971,8 @@
       <c r="H70">
         <v>25</v>
       </c>
-      <c r="I70" t="s">
-        <v>8</v>
+      <c r="I70">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3006,8 +3000,8 @@
       <c r="H71">
         <v>27</v>
       </c>
-      <c r="I71" t="s">
-        <v>8</v>
+      <c r="I71">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3035,8 +3029,8 @@
       <c r="H72">
         <v>28</v>
       </c>
-      <c r="I72" t="s">
-        <v>7</v>
+      <c r="I72">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3064,8 +3058,8 @@
       <c r="H73">
         <v>26</v>
       </c>
-      <c r="I73" t="s">
-        <v>8</v>
+      <c r="I73">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3093,8 +3087,8 @@
       <c r="H74">
         <v>42</v>
       </c>
-      <c r="I74" t="s">
-        <v>7</v>
+      <c r="I74">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3122,8 +3116,8 @@
       <c r="H75">
         <v>23</v>
       </c>
-      <c r="I75" t="s">
-        <v>8</v>
+      <c r="I75">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3151,8 +3145,8 @@
       <c r="H76">
         <v>22</v>
       </c>
-      <c r="I76" t="s">
-        <v>8</v>
+      <c r="I76">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3180,8 +3174,8 @@
       <c r="H77">
         <v>22</v>
       </c>
-      <c r="I77" t="s">
-        <v>8</v>
+      <c r="I77">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3209,8 +3203,8 @@
       <c r="H78">
         <v>41</v>
       </c>
-      <c r="I78" t="s">
-        <v>8</v>
+      <c r="I78">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3238,8 +3232,8 @@
       <c r="H79">
         <v>27</v>
       </c>
-      <c r="I79" t="s">
-        <v>8</v>
+      <c r="I79">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3267,8 +3261,8 @@
       <c r="H80">
         <v>26</v>
       </c>
-      <c r="I80" t="s">
-        <v>7</v>
+      <c r="I80">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3296,8 +3290,8 @@
       <c r="H81">
         <v>24</v>
       </c>
-      <c r="I81" t="s">
-        <v>8</v>
+      <c r="I81">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3325,8 +3319,8 @@
       <c r="H82">
         <v>22</v>
       </c>
-      <c r="I82" t="s">
-        <v>8</v>
+      <c r="I82">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3354,8 +3348,8 @@
       <c r="H83">
         <v>22</v>
       </c>
-      <c r="I83" t="s">
-        <v>8</v>
+      <c r="I83">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3383,8 +3377,8 @@
       <c r="H84">
         <v>36</v>
       </c>
-      <c r="I84" t="s">
-        <v>8</v>
+      <c r="I84">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3412,8 +3406,8 @@
       <c r="H85">
         <v>22</v>
       </c>
-      <c r="I85" t="s">
-        <v>8</v>
+      <c r="I85">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3441,8 +3435,8 @@
       <c r="H86">
         <v>37</v>
       </c>
-      <c r="I86" t="s">
-        <v>7</v>
+      <c r="I86">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3470,8 +3464,8 @@
       <c r="H87">
         <v>27</v>
       </c>
-      <c r="I87" t="s">
-        <v>8</v>
+      <c r="I87">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3499,8 +3493,8 @@
       <c r="H88">
         <v>45</v>
       </c>
-      <c r="I88" t="s">
-        <v>8</v>
+      <c r="I88">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3528,8 +3522,8 @@
       <c r="H89">
         <v>26</v>
       </c>
-      <c r="I89" t="s">
-        <v>8</v>
+      <c r="I89">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3557,8 +3551,8 @@
       <c r="H90">
         <v>43</v>
       </c>
-      <c r="I90" t="s">
-        <v>7</v>
+      <c r="I90">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3586,8 +3580,8 @@
       <c r="H91">
         <v>24</v>
       </c>
-      <c r="I91" t="s">
-        <v>8</v>
+      <c r="I91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3615,8 +3609,8 @@
       <c r="H92">
         <v>21</v>
       </c>
-      <c r="I92" t="s">
-        <v>8</v>
+      <c r="I92">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3644,8 +3638,8 @@
       <c r="H93">
         <v>34</v>
       </c>
-      <c r="I93" t="s">
-        <v>8</v>
+      <c r="I93">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3673,8 +3667,8 @@
       <c r="H94">
         <v>42</v>
       </c>
-      <c r="I94" t="s">
-        <v>8</v>
+      <c r="I94">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3702,8 +3696,8 @@
       <c r="H95">
         <v>60</v>
       </c>
-      <c r="I95" t="s">
-        <v>7</v>
+      <c r="I95">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3731,8 +3725,8 @@
       <c r="H96">
         <v>21</v>
       </c>
-      <c r="I96" t="s">
-        <v>8</v>
+      <c r="I96">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3760,8 +3754,8 @@
       <c r="H97">
         <v>40</v>
       </c>
-      <c r="I97" t="s">
-        <v>8</v>
+      <c r="I97">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3789,8 +3783,8 @@
       <c r="H98">
         <v>24</v>
       </c>
-      <c r="I98" t="s">
-        <v>8</v>
+      <c r="I98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3818,8 +3812,8 @@
       <c r="H99">
         <v>22</v>
       </c>
-      <c r="I99" t="s">
-        <v>8</v>
+      <c r="I99">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3847,8 +3841,8 @@
       <c r="H100">
         <v>23</v>
       </c>
-      <c r="I100" t="s">
-        <v>8</v>
+      <c r="I100">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3876,8 +3870,8 @@
       <c r="H101">
         <v>31</v>
       </c>
-      <c r="I101" t="s">
-        <v>7</v>
+      <c r="I101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3905,8 +3899,8 @@
       <c r="H102">
         <v>33</v>
       </c>
-      <c r="I102" t="s">
-        <v>7</v>
+      <c r="I102">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3934,8 +3928,8 @@
       <c r="H103">
         <v>22</v>
       </c>
-      <c r="I103" t="s">
-        <v>8</v>
+      <c r="I103">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3963,8 +3957,8 @@
       <c r="H104">
         <v>21</v>
       </c>
-      <c r="I104" t="s">
-        <v>8</v>
+      <c r="I104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3992,8 +3986,8 @@
       <c r="H105">
         <v>24</v>
       </c>
-      <c r="I105" t="s">
-        <v>8</v>
+      <c r="I105">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -4021,8 +4015,8 @@
       <c r="H106">
         <v>27</v>
       </c>
-      <c r="I106" t="s">
-        <v>8</v>
+      <c r="I106">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4050,8 +4044,8 @@
       <c r="H107">
         <v>21</v>
       </c>
-      <c r="I107" t="s">
-        <v>8</v>
+      <c r="I107">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4079,8 +4073,8 @@
       <c r="H108">
         <v>27</v>
       </c>
-      <c r="I108" t="s">
-        <v>8</v>
+      <c r="I108">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4108,8 +4102,8 @@
       <c r="H109">
         <v>37</v>
       </c>
-      <c r="I109" t="s">
-        <v>8</v>
+      <c r="I109">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4137,8 +4131,8 @@
       <c r="H110">
         <v>25</v>
       </c>
-      <c r="I110" t="s">
-        <v>8</v>
+      <c r="I110">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4166,8 +4160,8 @@
       <c r="H111">
         <v>24</v>
       </c>
-      <c r="I111" t="s">
-        <v>7</v>
+      <c r="I111">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4195,8 +4189,8 @@
       <c r="H112">
         <v>24</v>
       </c>
-      <c r="I112" t="s">
-        <v>7</v>
+      <c r="I112">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4224,8 +4218,8 @@
       <c r="H113">
         <v>46</v>
       </c>
-      <c r="I113" t="s">
-        <v>7</v>
+      <c r="I113">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4253,8 +4247,8 @@
       <c r="H114">
         <v>23</v>
       </c>
-      <c r="I114" t="s">
-        <v>8</v>
+      <c r="I114">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4282,8 +4276,8 @@
       <c r="H115">
         <v>25</v>
       </c>
-      <c r="I115" t="s">
-        <v>8</v>
+      <c r="I115">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4311,8 +4305,8 @@
       <c r="H116">
         <v>39</v>
       </c>
-      <c r="I116" t="s">
-        <v>7</v>
+      <c r="I116">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4340,8 +4334,8 @@
       <c r="H117">
         <v>61</v>
       </c>
-      <c r="I117" t="s">
-        <v>7</v>
+      <c r="I117">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4369,8 +4363,8 @@
       <c r="H118">
         <v>38</v>
       </c>
-      <c r="I118" t="s">
-        <v>7</v>
+      <c r="I118">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4398,8 +4392,8 @@
       <c r="H119">
         <v>25</v>
       </c>
-      <c r="I119" t="s">
-        <v>8</v>
+      <c r="I119">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4427,8 +4421,8 @@
       <c r="H120">
         <v>22</v>
       </c>
-      <c r="I120" t="s">
-        <v>8</v>
+      <c r="I120">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -4456,8 +4450,8 @@
       <c r="H121">
         <v>21</v>
       </c>
-      <c r="I121" t="s">
-        <v>8</v>
+      <c r="I121">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4485,8 +4479,8 @@
       <c r="H122">
         <v>25</v>
       </c>
-      <c r="I122" t="s">
-        <v>7</v>
+      <c r="I122">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4514,8 +4508,8 @@
       <c r="H123">
         <v>24</v>
       </c>
-      <c r="I123" t="s">
-        <v>8</v>
+      <c r="I123">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4543,8 +4537,8 @@
       <c r="H124">
         <v>23</v>
       </c>
-      <c r="I124" t="s">
-        <v>8</v>
+      <c r="I124">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4572,8 +4566,8 @@
       <c r="H125">
         <v>69</v>
       </c>
-      <c r="I125" t="s">
-        <v>8</v>
+      <c r="I125">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4601,8 +4595,8 @@
       <c r="H126">
         <v>23</v>
       </c>
-      <c r="I126" t="s">
-        <v>7</v>
+      <c r="I126">
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4630,8 +4624,8 @@
       <c r="H127">
         <v>26</v>
       </c>
-      <c r="I127" t="s">
-        <v>7</v>
+      <c r="I127">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4659,8 +4653,8 @@
       <c r="H128">
         <v>30</v>
       </c>
-      <c r="I128" t="s">
-        <v>8</v>
+      <c r="I128">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -4688,8 +4682,8 @@
       <c r="H129">
         <v>23</v>
       </c>
-      <c r="I129" t="s">
-        <v>8</v>
+      <c r="I129">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -4717,8 +4711,8 @@
       <c r="H130">
         <v>40</v>
       </c>
-      <c r="I130" t="s">
-        <v>7</v>
+      <c r="I130">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -4746,8 +4740,8 @@
       <c r="H131">
         <v>62</v>
       </c>
-      <c r="I131" t="s">
-        <v>7</v>
+      <c r="I131">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -4775,8 +4769,8 @@
       <c r="H132">
         <v>33</v>
       </c>
-      <c r="I132" t="s">
-        <v>7</v>
+      <c r="I132">
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -4804,8 +4798,8 @@
       <c r="H133">
         <v>33</v>
       </c>
-      <c r="I133" t="s">
-        <v>7</v>
+      <c r="I133">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -4833,8 +4827,8 @@
       <c r="H134">
         <v>30</v>
       </c>
-      <c r="I134" t="s">
-        <v>7</v>
+      <c r="I134">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -4862,8 +4856,8 @@
       <c r="H135">
         <v>39</v>
       </c>
-      <c r="I135" t="s">
-        <v>8</v>
+      <c r="I135">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -4891,8 +4885,8 @@
       <c r="H136">
         <v>26</v>
       </c>
-      <c r="I136" t="s">
-        <v>8</v>
+      <c r="I136">
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -4920,8 +4914,8 @@
       <c r="H137">
         <v>31</v>
       </c>
-      <c r="I137" t="s">
-        <v>8</v>
+      <c r="I137">
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -4949,8 +4943,8 @@
       <c r="H138">
         <v>21</v>
       </c>
-      <c r="I138" t="s">
-        <v>8</v>
+      <c r="I138">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -4978,8 +4972,8 @@
       <c r="H139">
         <v>22</v>
       </c>
-      <c r="I139" t="s">
-        <v>8</v>
+      <c r="I139">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -5007,8 +5001,8 @@
       <c r="H140">
         <v>29</v>
       </c>
-      <c r="I140" t="s">
-        <v>8</v>
+      <c r="I140">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -5036,8 +5030,8 @@
       <c r="H141">
         <v>28</v>
       </c>
-      <c r="I141" t="s">
-        <v>8</v>
+      <c r="I141">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -5065,8 +5059,8 @@
       <c r="H142">
         <v>55</v>
       </c>
-      <c r="I142" t="s">
-        <v>8</v>
+      <c r="I142">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -5094,8 +5088,8 @@
       <c r="H143">
         <v>38</v>
       </c>
-      <c r="I143" t="s">
-        <v>8</v>
+      <c r="I143">
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -5123,8 +5117,8 @@
       <c r="H144">
         <v>22</v>
       </c>
-      <c r="I144" t="s">
-        <v>8</v>
+      <c r="I144">
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -5152,8 +5146,8 @@
       <c r="H145">
         <v>42</v>
       </c>
-      <c r="I145" t="s">
-        <v>7</v>
+      <c r="I145">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -5181,8 +5175,8 @@
       <c r="H146">
         <v>23</v>
       </c>
-      <c r="I146" t="s">
-        <v>8</v>
+      <c r="I146">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5210,8 +5204,8 @@
       <c r="H147">
         <v>21</v>
       </c>
-      <c r="I147" t="s">
-        <v>8</v>
+      <c r="I147">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5239,8 +5233,8 @@
       <c r="H148">
         <v>41</v>
       </c>
-      <c r="I148" t="s">
-        <v>8</v>
+      <c r="I148">
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -5268,8 +5262,8 @@
       <c r="H149">
         <v>34</v>
       </c>
-      <c r="I149" t="s">
-        <v>8</v>
+      <c r="I149">
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -5297,8 +5291,8 @@
       <c r="H150">
         <v>65</v>
       </c>
-      <c r="I150" t="s">
-        <v>8</v>
+      <c r="I150">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -5326,8 +5320,8 @@
       <c r="H151">
         <v>22</v>
       </c>
-      <c r="I151" t="s">
-        <v>8</v>
+      <c r="I151">
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -5355,8 +5349,8 @@
       <c r="H152">
         <v>24</v>
       </c>
-      <c r="I152" t="s">
-        <v>8</v>
+      <c r="I152">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -5384,8 +5378,8 @@
       <c r="H153">
         <v>37</v>
       </c>
-      <c r="I153" t="s">
-        <v>8</v>
+      <c r="I153">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -5413,8 +5407,8 @@
       <c r="H154">
         <v>42</v>
       </c>
-      <c r="I154" t="s">
-        <v>7</v>
+      <c r="I154">
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -5442,8 +5436,8 @@
       <c r="H155">
         <v>23</v>
       </c>
-      <c r="I155" t="s">
-        <v>8</v>
+      <c r="I155">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -5471,8 +5465,8 @@
       <c r="H156">
         <v>43</v>
       </c>
-      <c r="I156" t="s">
-        <v>7</v>
+      <c r="I156">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -5500,8 +5494,8 @@
       <c r="H157">
         <v>36</v>
       </c>
-      <c r="I157" t="s">
-        <v>7</v>
+      <c r="I157">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -5529,8 +5523,8 @@
       <c r="H158">
         <v>21</v>
       </c>
-      <c r="I158" t="s">
-        <v>8</v>
+      <c r="I158">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -5558,8 +5552,8 @@
       <c r="H159">
         <v>23</v>
       </c>
-      <c r="I159" t="s">
-        <v>8</v>
+      <c r="I159">
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -5587,8 +5581,8 @@
       <c r="H160">
         <v>22</v>
       </c>
-      <c r="I160" t="s">
-        <v>8</v>
+      <c r="I160">
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -5616,8 +5610,8 @@
       <c r="H161">
         <v>47</v>
       </c>
-      <c r="I161" t="s">
-        <v>7</v>
+      <c r="I161">
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -5645,8 +5639,8 @@
       <c r="H162">
         <v>36</v>
       </c>
-      <c r="I162" t="s">
-        <v>8</v>
+      <c r="I162">
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -5674,8 +5668,8 @@
       <c r="H163">
         <v>45</v>
       </c>
-      <c r="I163" t="s">
-        <v>8</v>
+      <c r="I163">
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -5703,8 +5697,8 @@
       <c r="H164">
         <v>27</v>
       </c>
-      <c r="I164" t="s">
-        <v>8</v>
+      <c r="I164">
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -5732,8 +5726,8 @@
       <c r="H165">
         <v>21</v>
       </c>
-      <c r="I165" t="s">
-        <v>8</v>
+      <c r="I165">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -5761,8 +5755,8 @@
       <c r="H166">
         <v>32</v>
       </c>
-      <c r="I166" t="s">
-        <v>7</v>
+      <c r="I166">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -5790,8 +5784,8 @@
       <c r="H167">
         <v>41</v>
       </c>
-      <c r="I167" t="s">
-        <v>7</v>
+      <c r="I167">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -5819,8 +5813,8 @@
       <c r="H168">
         <v>22</v>
       </c>
-      <c r="I168" t="s">
-        <v>8</v>
+      <c r="I168">
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -5848,8 +5842,8 @@
       <c r="H169">
         <v>34</v>
       </c>
-      <c r="I169" t="s">
-        <v>8</v>
+      <c r="I169">
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -5877,8 +5871,8 @@
       <c r="H170">
         <v>29</v>
       </c>
-      <c r="I170" t="s">
-        <v>8</v>
+      <c r="I170">
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -5906,8 +5900,8 @@
       <c r="H171">
         <v>29</v>
       </c>
-      <c r="I171" t="s">
-        <v>8</v>
+      <c r="I171">
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -5935,8 +5929,8 @@
       <c r="H172">
         <v>36</v>
       </c>
-      <c r="I172" t="s">
-        <v>7</v>
+      <c r="I172">
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -5964,8 +5958,8 @@
       <c r="H173">
         <v>29</v>
       </c>
-      <c r="I173" t="s">
-        <v>7</v>
+      <c r="I173">
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -5993,8 +5987,8 @@
       <c r="H174">
         <v>25</v>
       </c>
-      <c r="I174" t="s">
-        <v>8</v>
+      <c r="I174">
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -6022,8 +6016,8 @@
       <c r="H175">
         <v>23</v>
       </c>
-      <c r="I175" t="s">
-        <v>8</v>
+      <c r="I175">
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -6051,8 +6045,8 @@
       <c r="H176">
         <v>33</v>
       </c>
-      <c r="I176" t="s">
-        <v>8</v>
+      <c r="I176">
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -6080,8 +6074,8 @@
       <c r="H177">
         <v>36</v>
       </c>
-      <c r="I177" t="s">
-        <v>7</v>
+      <c r="I177">
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -6109,8 +6103,8 @@
       <c r="H178">
         <v>42</v>
       </c>
-      <c r="I178" t="s">
-        <v>8</v>
+      <c r="I178">
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -6138,8 +6132,8 @@
       <c r="H179">
         <v>26</v>
       </c>
-      <c r="I179" t="s">
-        <v>7</v>
+      <c r="I179">
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -6167,8 +6161,8 @@
       <c r="H180">
         <v>47</v>
       </c>
-      <c r="I180" t="s">
-        <v>8</v>
+      <c r="I180">
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -6196,8 +6190,8 @@
       <c r="H181">
         <v>37</v>
       </c>
-      <c r="I181" t="s">
-        <v>7</v>
+      <c r="I181">
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -6225,8 +6219,8 @@
       <c r="H182">
         <v>32</v>
       </c>
-      <c r="I182" t="s">
-        <v>8</v>
+      <c r="I182">
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -6254,8 +6248,8 @@
       <c r="H183">
         <v>23</v>
       </c>
-      <c r="I183" t="s">
-        <v>8</v>
+      <c r="I183">
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -6283,8 +6277,8 @@
       <c r="H184">
         <v>21</v>
       </c>
-      <c r="I184" t="s">
-        <v>8</v>
+      <c r="I184">
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -6312,8 +6306,8 @@
       <c r="H185">
         <v>27</v>
       </c>
-      <c r="I185" t="s">
-        <v>8</v>
+      <c r="I185">
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -6341,8 +6335,8 @@
       <c r="H186">
         <v>40</v>
       </c>
-      <c r="I186" t="s">
-        <v>8</v>
+      <c r="I186">
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -6370,8 +6364,8 @@
       <c r="H187">
         <v>41</v>
       </c>
-      <c r="I187" t="s">
-        <v>7</v>
+      <c r="I187">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -6399,8 +6393,8 @@
       <c r="H188">
         <v>60</v>
       </c>
-      <c r="I188" t="s">
-        <v>7</v>
+      <c r="I188">
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -6428,8 +6422,8 @@
       <c r="H189">
         <v>33</v>
       </c>
-      <c r="I189" t="s">
-        <v>7</v>
+      <c r="I189">
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -6457,8 +6451,8 @@
       <c r="H190">
         <v>31</v>
       </c>
-      <c r="I190" t="s">
-        <v>7</v>
+      <c r="I190">
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -6486,8 +6480,8 @@
       <c r="H191">
         <v>25</v>
       </c>
-      <c r="I191" t="s">
-        <v>7</v>
+      <c r="I191">
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -6515,8 +6509,8 @@
       <c r="H192">
         <v>21</v>
       </c>
-      <c r="I192" t="s">
-        <v>8</v>
+      <c r="I192">
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -6544,8 +6538,8 @@
       <c r="H193">
         <v>40</v>
       </c>
-      <c r="I193" t="s">
-        <v>8</v>
+      <c r="I193">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -6573,8 +6567,8 @@
       <c r="H194">
         <v>36</v>
       </c>
-      <c r="I194" t="s">
-        <v>7</v>
+      <c r="I194">
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -6602,8 +6596,8 @@
       <c r="H195">
         <v>40</v>
       </c>
-      <c r="I195" t="s">
-        <v>7</v>
+      <c r="I195">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -6631,8 +6625,8 @@
       <c r="H196">
         <v>42</v>
       </c>
-      <c r="I196" t="s">
-        <v>8</v>
+      <c r="I196">
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -6660,8 +6654,8 @@
       <c r="H197">
         <v>29</v>
       </c>
-      <c r="I197" t="s">
-        <v>7</v>
+      <c r="I197">
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -6689,8 +6683,8 @@
       <c r="H198">
         <v>21</v>
       </c>
-      <c r="I198" t="s">
-        <v>8</v>
+      <c r="I198">
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -6718,8 +6712,8 @@
       <c r="H199">
         <v>23</v>
       </c>
-      <c r="I199" t="s">
-        <v>7</v>
+      <c r="I199">
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -6747,8 +6741,8 @@
       <c r="H200">
         <v>26</v>
       </c>
-      <c r="I200" t="s">
-        <v>7</v>
+      <c r="I200">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -6776,8 +6770,8 @@
       <c r="H201">
         <v>29</v>
       </c>
-      <c r="I201" t="s">
-        <v>7</v>
+      <c r="I201">
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -6805,8 +6799,8 @@
       <c r="H202">
         <v>21</v>
       </c>
-      <c r="I202" t="s">
-        <v>8</v>
+      <c r="I202">
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -6834,8 +6828,8 @@
       <c r="H203">
         <v>28</v>
       </c>
-      <c r="I203" t="s">
-        <v>8</v>
+      <c r="I203">
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -6863,8 +6857,8 @@
       <c r="H204">
         <v>32</v>
       </c>
-      <c r="I204" t="s">
-        <v>8</v>
+      <c r="I204">
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -6892,8 +6886,8 @@
       <c r="H205">
         <v>27</v>
       </c>
-      <c r="I205" t="s">
-        <v>8</v>
+      <c r="I205">
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -6921,8 +6915,8 @@
       <c r="H206">
         <v>55</v>
       </c>
-      <c r="I206" t="s">
-        <v>8</v>
+      <c r="I206">
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -6950,8 +6944,8 @@
       <c r="H207">
         <v>27</v>
       </c>
-      <c r="I207" t="s">
-        <v>8</v>
+      <c r="I207">
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -6979,8 +6973,8 @@
       <c r="H208">
         <v>57</v>
       </c>
-      <c r="I208" t="s">
-        <v>7</v>
+      <c r="I208">
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -7008,8 +7002,8 @@
       <c r="H209">
         <v>52</v>
       </c>
-      <c r="I209" t="s">
-        <v>7</v>
+      <c r="I209">
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -7037,8 +7031,8 @@
       <c r="H210">
         <v>21</v>
       </c>
-      <c r="I210" t="s">
-        <v>8</v>
+      <c r="I210">
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -7066,8 +7060,8 @@
       <c r="H211">
         <v>41</v>
       </c>
-      <c r="I211" t="s">
-        <v>7</v>
+      <c r="I211">
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -7095,8 +7089,8 @@
       <c r="H212">
         <v>25</v>
       </c>
-      <c r="I212" t="s">
-        <v>8</v>
+      <c r="I212">
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -7124,8 +7118,8 @@
       <c r="H213">
         <v>24</v>
       </c>
-      <c r="I213" t="s">
-        <v>8</v>
+      <c r="I213">
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -7153,8 +7147,8 @@
       <c r="H214">
         <v>60</v>
       </c>
-      <c r="I214" t="s">
-        <v>8</v>
+      <c r="I214">
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -7182,8 +7176,8 @@
       <c r="H215">
         <v>24</v>
       </c>
-      <c r="I215" t="s">
-        <v>7</v>
+      <c r="I215">
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -7211,8 +7205,8 @@
       <c r="H216">
         <v>36</v>
       </c>
-      <c r="I216" t="s">
-        <v>7</v>
+      <c r="I216">
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -7240,8 +7234,8 @@
       <c r="H217">
         <v>38</v>
       </c>
-      <c r="I217" t="s">
-        <v>7</v>
+      <c r="I217">
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -7269,8 +7263,8 @@
       <c r="H218">
         <v>25</v>
       </c>
-      <c r="I218" t="s">
-        <v>7</v>
+      <c r="I218">
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -7298,8 +7292,8 @@
       <c r="H219">
         <v>32</v>
       </c>
-      <c r="I219" t="s">
-        <v>8</v>
+      <c r="I219">
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -7327,8 +7321,8 @@
       <c r="H220">
         <v>32</v>
       </c>
-      <c r="I220" t="s">
-        <v>7</v>
+      <c r="I220">
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -7356,8 +7350,8 @@
       <c r="H221">
         <v>41</v>
       </c>
-      <c r="I221" t="s">
-        <v>7</v>
+      <c r="I221">
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -7385,8 +7379,8 @@
       <c r="H222">
         <v>21</v>
       </c>
-      <c r="I222" t="s">
-        <v>7</v>
+      <c r="I222">
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -7414,8 +7408,8 @@
       <c r="H223">
         <v>66</v>
       </c>
-      <c r="I223" t="s">
-        <v>7</v>
+      <c r="I223">
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -7443,8 +7437,8 @@
       <c r="H224">
         <v>37</v>
       </c>
-      <c r="I224" t="s">
-        <v>8</v>
+      <c r="I224">
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -7472,8 +7466,8 @@
       <c r="H225">
         <v>61</v>
       </c>
-      <c r="I225" t="s">
-        <v>8</v>
+      <c r="I225">
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -7501,8 +7495,8 @@
       <c r="H226">
         <v>26</v>
       </c>
-      <c r="I226" t="s">
-        <v>8</v>
+      <c r="I226">
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -7530,8 +7524,8 @@
       <c r="H227">
         <v>22</v>
       </c>
-      <c r="I227" t="s">
-        <v>8</v>
+      <c r="I227">
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -7559,8 +7553,8 @@
       <c r="H228">
         <v>26</v>
       </c>
-      <c r="I228" t="s">
-        <v>8</v>
+      <c r="I228">
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -7588,8 +7582,8 @@
       <c r="H229">
         <v>24</v>
       </c>
-      <c r="I229" t="s">
-        <v>7</v>
+      <c r="I229">
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -7617,8 +7611,8 @@
       <c r="H230">
         <v>31</v>
       </c>
-      <c r="I230" t="s">
-        <v>8</v>
+      <c r="I230">
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -7646,8 +7640,8 @@
       <c r="H231">
         <v>24</v>
       </c>
-      <c r="I231" t="s">
-        <v>8</v>
+      <c r="I231">
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -7675,8 +7669,8 @@
       <c r="H232">
         <v>22</v>
       </c>
-      <c r="I232" t="s">
-        <v>7</v>
+      <c r="I232">
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -7704,8 +7698,8 @@
       <c r="H233">
         <v>46</v>
       </c>
-      <c r="I233" t="s">
-        <v>7</v>
+      <c r="I233">
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -7733,8 +7727,8 @@
       <c r="H234">
         <v>22</v>
       </c>
-      <c r="I234" t="s">
-        <v>8</v>
+      <c r="I234">
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -7762,8 +7756,8 @@
       <c r="H235">
         <v>29</v>
       </c>
-      <c r="I235" t="s">
-        <v>8</v>
+      <c r="I235">
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -7791,8 +7785,8 @@
       <c r="H236">
         <v>23</v>
       </c>
-      <c r="I236" t="s">
-        <v>8</v>
+      <c r="I236">
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -7820,8 +7814,8 @@
       <c r="H237">
         <v>26</v>
       </c>
-      <c r="I237" t="s">
-        <v>7</v>
+      <c r="I237">
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -7849,8 +7843,8 @@
       <c r="H238">
         <v>51</v>
       </c>
-      <c r="I238" t="s">
-        <v>7</v>
+      <c r="I238">
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -7878,8 +7872,8 @@
       <c r="H239">
         <v>23</v>
       </c>
-      <c r="I239" t="s">
-        <v>7</v>
+      <c r="I239">
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -7907,8 +7901,8 @@
       <c r="H240">
         <v>32</v>
       </c>
-      <c r="I240" t="s">
-        <v>7</v>
+      <c r="I240">
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -7936,8 +7930,8 @@
       <c r="H241">
         <v>27</v>
       </c>
-      <c r="I241" t="s">
-        <v>8</v>
+      <c r="I241">
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -7965,8 +7959,8 @@
       <c r="H242">
         <v>21</v>
       </c>
-      <c r="I242" t="s">
-        <v>8</v>
+      <c r="I242">
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -7994,8 +7988,8 @@
       <c r="H243">
         <v>22</v>
       </c>
-      <c r="I243" t="s">
-        <v>8</v>
+      <c r="I243">
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -8023,8 +8017,8 @@
       <c r="H244">
         <v>22</v>
       </c>
-      <c r="I244" t="s">
-        <v>7</v>
+      <c r="I244">
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -8052,8 +8046,8 @@
       <c r="H245">
         <v>33</v>
       </c>
-      <c r="I245" t="s">
-        <v>7</v>
+      <c r="I245">
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -8081,8 +8075,8 @@
       <c r="H246">
         <v>29</v>
       </c>
-      <c r="I246" t="s">
-        <v>8</v>
+      <c r="I246">
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -8110,8 +8104,8 @@
       <c r="H247">
         <v>49</v>
       </c>
-      <c r="I247" t="s">
-        <v>7</v>
+      <c r="I247">
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -8139,8 +8133,8 @@
       <c r="H248">
         <v>41</v>
       </c>
-      <c r="I248" t="s">
-        <v>8</v>
+      <c r="I248">
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -8168,8 +8162,8 @@
       <c r="H249">
         <v>23</v>
       </c>
-      <c r="I249" t="s">
-        <v>8</v>
+      <c r="I249">
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -8197,8 +8191,8 @@
       <c r="H250">
         <v>34</v>
       </c>
-      <c r="I250" t="s">
-        <v>8</v>
+      <c r="I250">
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -8226,8 +8220,8 @@
       <c r="H251">
         <v>23</v>
       </c>
-      <c r="I251" t="s">
-        <v>8</v>
+      <c r="I251">
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -8255,8 +8249,8 @@
       <c r="H252">
         <v>42</v>
       </c>
-      <c r="I252" t="s">
-        <v>8</v>
+      <c r="I252">
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -8284,8 +8278,8 @@
       <c r="H253">
         <v>27</v>
       </c>
-      <c r="I253" t="s">
-        <v>8</v>
+      <c r="I253">
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -8313,8 +8307,8 @@
       <c r="H254">
         <v>24</v>
       </c>
-      <c r="I254" t="s">
-        <v>8</v>
+      <c r="I254">
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -8342,8 +8336,8 @@
       <c r="H255">
         <v>25</v>
       </c>
-      <c r="I255" t="s">
-        <v>8</v>
+      <c r="I255">
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -8371,8 +8365,8 @@
       <c r="H256">
         <v>44</v>
       </c>
-      <c r="I256" t="s">
-        <v>7</v>
+      <c r="I256">
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -8400,8 +8394,8 @@
       <c r="H257">
         <v>21</v>
       </c>
-      <c r="I257" t="s">
-        <v>7</v>
+      <c r="I257">
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -8429,8 +8423,8 @@
       <c r="H258">
         <v>30</v>
       </c>
-      <c r="I258" t="s">
-        <v>8</v>
+      <c r="I258">
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -8458,8 +8452,8 @@
       <c r="H259">
         <v>25</v>
       </c>
-      <c r="I259" t="s">
-        <v>8</v>
+      <c r="I259">
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -8487,8 +8481,8 @@
       <c r="H260">
         <v>24</v>
       </c>
-      <c r="I260" t="s">
-        <v>8</v>
+      <c r="I260">
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -8516,8 +8510,8 @@
       <c r="H261">
         <v>51</v>
       </c>
-      <c r="I261" t="s">
-        <v>7</v>
+      <c r="I261">
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -8545,8 +8539,8 @@
       <c r="H262">
         <v>34</v>
       </c>
-      <c r="I262" t="s">
-        <v>8</v>
+      <c r="I262">
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -8574,8 +8568,8 @@
       <c r="H263">
         <v>27</v>
       </c>
-      <c r="I263" t="s">
-        <v>7</v>
+      <c r="I263">
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -8603,8 +8597,8 @@
       <c r="H264">
         <v>24</v>
       </c>
-      <c r="I264" t="s">
-        <v>8</v>
+      <c r="I264">
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -8632,8 +8626,8 @@
       <c r="H265">
         <v>63</v>
       </c>
-      <c r="I265" t="s">
-        <v>8</v>
+      <c r="I265">
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -8661,8 +8655,8 @@
       <c r="H266">
         <v>35</v>
       </c>
-      <c r="I266" t="s">
-        <v>7</v>
+      <c r="I266">
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -8690,8 +8684,8 @@
       <c r="H267">
         <v>43</v>
       </c>
-      <c r="I267" t="s">
-        <v>8</v>
+      <c r="I267">
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -8719,8 +8713,8 @@
       <c r="H268">
         <v>25</v>
       </c>
-      <c r="I268" t="s">
-        <v>7</v>
+      <c r="I268">
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -8748,8 +8742,8 @@
       <c r="H269">
         <v>24</v>
       </c>
-      <c r="I269" t="s">
-        <v>8</v>
+      <c r="I269">
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -8777,8 +8771,8 @@
       <c r="H270">
         <v>21</v>
       </c>
-      <c r="I270" t="s">
-        <v>8</v>
+      <c r="I270">
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -8806,8 +8800,8 @@
       <c r="H271">
         <v>28</v>
       </c>
-      <c r="I271" t="s">
-        <v>7</v>
+      <c r="I271">
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -8835,8 +8829,8 @@
       <c r="H272">
         <v>38</v>
       </c>
-      <c r="I272" t="s">
-        <v>7</v>
+      <c r="I272">
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -8864,8 +8858,8 @@
       <c r="H273">
         <v>21</v>
       </c>
-      <c r="I273" t="s">
-        <v>8</v>
+      <c r="I273">
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -8893,8 +8887,8 @@
       <c r="H274">
         <v>40</v>
       </c>
-      <c r="I274" t="s">
-        <v>8</v>
+      <c r="I274">
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -8922,8 +8916,8 @@
       <c r="H275">
         <v>21</v>
       </c>
-      <c r="I275" t="s">
-        <v>8</v>
+      <c r="I275">
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -8951,8 +8945,8 @@
       <c r="H276">
         <v>52</v>
       </c>
-      <c r="I276" t="s">
-        <v>8</v>
+      <c r="I276">
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -8980,8 +8974,8 @@
       <c r="H277">
         <v>25</v>
       </c>
-      <c r="I277" t="s">
-        <v>8</v>
+      <c r="I277">
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -9009,8 +9003,8 @@
       <c r="H278">
         <v>29</v>
       </c>
-      <c r="I278" t="s">
-        <v>7</v>
+      <c r="I278">
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -9038,8 +9032,8 @@
       <c r="H279">
         <v>23</v>
       </c>
-      <c r="I279" t="s">
-        <v>8</v>
+      <c r="I279">
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -9067,8 +9061,8 @@
       <c r="H280">
         <v>57</v>
       </c>
-      <c r="I280" t="s">
-        <v>8</v>
+      <c r="I280">
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -9096,8 +9090,8 @@
       <c r="H281">
         <v>22</v>
       </c>
-      <c r="I281" t="s">
-        <v>8</v>
+      <c r="I281">
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -9125,8 +9119,8 @@
       <c r="H282">
         <v>28</v>
       </c>
-      <c r="I282" t="s">
-        <v>7</v>
+      <c r="I282">
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -9154,8 +9148,8 @@
       <c r="H283">
         <v>39</v>
       </c>
-      <c r="I283" t="s">
-        <v>8</v>
+      <c r="I283">
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -9183,8 +9177,8 @@
       <c r="H284">
         <v>37</v>
       </c>
-      <c r="I284" t="s">
-        <v>8</v>
+      <c r="I284">
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -9212,8 +9206,8 @@
       <c r="H285">
         <v>47</v>
       </c>
-      <c r="I285" t="s">
-        <v>7</v>
+      <c r="I285">
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -9241,8 +9235,8 @@
       <c r="H286">
         <v>52</v>
       </c>
-      <c r="I286" t="s">
-        <v>7</v>
+      <c r="I286">
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -9270,8 +9264,8 @@
       <c r="H287">
         <v>51</v>
       </c>
-      <c r="I287" t="s">
-        <v>8</v>
+      <c r="I287">
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -9299,8 +9293,8 @@
       <c r="H288">
         <v>34</v>
       </c>
-      <c r="I288" t="s">
-        <v>8</v>
+      <c r="I288">
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -9328,8 +9322,8 @@
       <c r="H289">
         <v>29</v>
       </c>
-      <c r="I289" t="s">
-        <v>7</v>
+      <c r="I289">
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -9357,8 +9351,8 @@
       <c r="H290">
         <v>26</v>
       </c>
-      <c r="I290" t="s">
-        <v>8</v>
+      <c r="I290">
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -9386,8 +9380,8 @@
       <c r="H291">
         <v>33</v>
       </c>
-      <c r="I291" t="s">
-        <v>8</v>
+      <c r="I291">
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -9415,8 +9409,8 @@
       <c r="H292">
         <v>21</v>
       </c>
-      <c r="I292" t="s">
-        <v>8</v>
+      <c r="I292">
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -9444,8 +9438,8 @@
       <c r="H293">
         <v>25</v>
       </c>
-      <c r="I293" t="s">
-        <v>7</v>
+      <c r="I293">
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -9473,8 +9467,8 @@
       <c r="H294">
         <v>31</v>
       </c>
-      <c r="I294" t="s">
-        <v>7</v>
+      <c r="I294">
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -9502,8 +9496,8 @@
       <c r="H295">
         <v>24</v>
       </c>
-      <c r="I295" t="s">
-        <v>7</v>
+      <c r="I295">
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -9531,8 +9525,8 @@
       <c r="H296">
         <v>65</v>
       </c>
-      <c r="I296" t="s">
-        <v>8</v>
+      <c r="I296">
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -9560,8 +9554,8 @@
       <c r="H297">
         <v>28</v>
       </c>
-      <c r="I297" t="s">
-        <v>8</v>
+      <c r="I297">
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -9589,8 +9583,8 @@
       <c r="H298">
         <v>29</v>
       </c>
-      <c r="I298" t="s">
-        <v>7</v>
+      <c r="I298">
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -9618,8 +9612,8 @@
       <c r="H299">
         <v>24</v>
       </c>
-      <c r="I299" t="s">
-        <v>8</v>
+      <c r="I299">
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -9647,8 +9641,8 @@
       <c r="H300">
         <v>46</v>
       </c>
-      <c r="I300" t="s">
-        <v>7</v>
+      <c r="I300">
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -9676,8 +9670,8 @@
       <c r="H301">
         <v>58</v>
       </c>
-      <c r="I301" t="s">
-        <v>8</v>
+      <c r="I301">
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -9705,8 +9699,8 @@
       <c r="H302">
         <v>30</v>
       </c>
-      <c r="I302" t="s">
-        <v>7</v>
+      <c r="I302">
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -9734,8 +9728,8 @@
       <c r="H303">
         <v>25</v>
       </c>
-      <c r="I303" t="s">
-        <v>7</v>
+      <c r="I303">
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -9763,8 +9757,8 @@
       <c r="H304">
         <v>35</v>
       </c>
-      <c r="I304" t="s">
-        <v>8</v>
+      <c r="I304">
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -9792,8 +9786,8 @@
       <c r="H305">
         <v>28</v>
       </c>
-      <c r="I305" t="s">
-        <v>7</v>
+      <c r="I305">
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -9821,8 +9815,8 @@
       <c r="H306">
         <v>37</v>
       </c>
-      <c r="I306" t="s">
-        <v>8</v>
+      <c r="I306">
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -9850,8 +9844,8 @@
       <c r="H307">
         <v>29</v>
       </c>
-      <c r="I307" t="s">
-        <v>8</v>
+      <c r="I307">
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -9879,8 +9873,8 @@
       <c r="H308">
         <v>47</v>
       </c>
-      <c r="I308" t="s">
-        <v>7</v>
+      <c r="I308">
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -9908,8 +9902,8 @@
       <c r="H309">
         <v>21</v>
       </c>
-      <c r="I309" t="s">
-        <v>8</v>
+      <c r="I309">
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -9937,8 +9931,8 @@
       <c r="H310">
         <v>25</v>
       </c>
-      <c r="I310" t="s">
-        <v>7</v>
+      <c r="I310">
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -9966,8 +9960,8 @@
       <c r="H311">
         <v>30</v>
       </c>
-      <c r="I311" t="s">
-        <v>7</v>
+      <c r="I311">
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -9995,8 +9989,8 @@
       <c r="H312">
         <v>41</v>
       </c>
-      <c r="I312" t="s">
-        <v>8</v>
+      <c r="I312">
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -10024,8 +10018,8 @@
       <c r="H313">
         <v>22</v>
       </c>
-      <c r="I313" t="s">
-        <v>8</v>
+      <c r="I313">
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -10053,8 +10047,8 @@
       <c r="H314">
         <v>27</v>
       </c>
-      <c r="I314" t="s">
-        <v>7</v>
+      <c r="I314">
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -10082,8 +10076,8 @@
       <c r="H315">
         <v>25</v>
       </c>
-      <c r="I315" t="s">
-        <v>8</v>
+      <c r="I315">
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -10111,8 +10105,8 @@
       <c r="H316">
         <v>43</v>
       </c>
-      <c r="I316" t="s">
-        <v>7</v>
+      <c r="I316">
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -10140,8 +10134,8 @@
       <c r="H317">
         <v>26</v>
       </c>
-      <c r="I317" t="s">
-        <v>8</v>
+      <c r="I317">
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -10169,8 +10163,8 @@
       <c r="H318">
         <v>30</v>
       </c>
-      <c r="I318" t="s">
-        <v>8</v>
+      <c r="I318">
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -10198,8 +10192,8 @@
       <c r="H319">
         <v>29</v>
       </c>
-      <c r="I319" t="s">
-        <v>7</v>
+      <c r="I319">
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -10227,8 +10221,8 @@
       <c r="H320">
         <v>28</v>
       </c>
-      <c r="I320" t="s">
-        <v>8</v>
+      <c r="I320">
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -10256,8 +10250,8 @@
       <c r="H321">
         <v>59</v>
       </c>
-      <c r="I321" t="s">
-        <v>7</v>
+      <c r="I321">
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -10285,8 +10279,8 @@
       <c r="H322">
         <v>31</v>
       </c>
-      <c r="I322" t="s">
-        <v>8</v>
+      <c r="I322">
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -10314,8 +10308,8 @@
       <c r="H323">
         <v>25</v>
       </c>
-      <c r="I323" t="s">
-        <v>7</v>
+      <c r="I323">
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -10343,8 +10337,8 @@
       <c r="H324">
         <v>36</v>
       </c>
-      <c r="I324" t="s">
-        <v>7</v>
+      <c r="I324">
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -10372,8 +10366,8 @@
       <c r="H325">
         <v>43</v>
       </c>
-      <c r="I325" t="s">
-        <v>7</v>
+      <c r="I325">
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -10401,8 +10395,8 @@
       <c r="H326">
         <v>21</v>
       </c>
-      <c r="I326" t="s">
-        <v>8</v>
+      <c r="I326">
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -10430,8 +10424,8 @@
       <c r="H327">
         <v>24</v>
       </c>
-      <c r="I327" t="s">
-        <v>8</v>
+      <c r="I327">
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -10459,8 +10453,8 @@
       <c r="H328">
         <v>30</v>
       </c>
-      <c r="I328" t="s">
-        <v>7</v>
+      <c r="I328">
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -10488,8 +10482,8 @@
       <c r="H329">
         <v>37</v>
       </c>
-      <c r="I329" t="s">
-        <v>8</v>
+      <c r="I329">
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -10517,8 +10511,8 @@
       <c r="H330">
         <v>23</v>
       </c>
-      <c r="I330" t="s">
-        <v>7</v>
+      <c r="I330">
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -10546,8 +10540,8 @@
       <c r="H331">
         <v>37</v>
       </c>
-      <c r="I331" t="s">
-        <v>8</v>
+      <c r="I331">
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -10575,8 +10569,8 @@
       <c r="H332">
         <v>46</v>
       </c>
-      <c r="I332" t="s">
-        <v>8</v>
+      <c r="I332">
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -10604,8 +10598,8 @@
       <c r="H333">
         <v>25</v>
       </c>
-      <c r="I333" t="s">
-        <v>8</v>
+      <c r="I333">
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -10633,8 +10627,8 @@
       <c r="H334">
         <v>41</v>
       </c>
-      <c r="I334" t="s">
-        <v>7</v>
+      <c r="I334">
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -10662,8 +10656,8 @@
       <c r="H335">
         <v>44</v>
       </c>
-      <c r="I335" t="s">
-        <v>8</v>
+      <c r="I335">
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -10691,8 +10685,8 @@
       <c r="H336">
         <v>22</v>
       </c>
-      <c r="I336" t="s">
-        <v>8</v>
+      <c r="I336">
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -10720,8 +10714,8 @@
       <c r="H337">
         <v>26</v>
       </c>
-      <c r="I337" t="s">
-        <v>8</v>
+      <c r="I337">
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -10749,8 +10743,8 @@
       <c r="H338">
         <v>44</v>
       </c>
-      <c r="I338" t="s">
-        <v>8</v>
+      <c r="I338">
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -10778,8 +10772,8 @@
       <c r="H339">
         <v>44</v>
       </c>
-      <c r="I339" t="s">
-        <v>7</v>
+      <c r="I339">
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -10807,8 +10801,8 @@
       <c r="H340">
         <v>33</v>
       </c>
-      <c r="I340" t="s">
-        <v>7</v>
+      <c r="I340">
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -10836,8 +10830,8 @@
       <c r="H341">
         <v>41</v>
       </c>
-      <c r="I341" t="s">
-        <v>7</v>
+      <c r="I341">
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -10865,8 +10859,8 @@
       <c r="H342">
         <v>22</v>
       </c>
-      <c r="I342" t="s">
-        <v>8</v>
+      <c r="I342">
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -10894,8 +10888,8 @@
       <c r="H343">
         <v>36</v>
       </c>
-      <c r="I343" t="s">
-        <v>8</v>
+      <c r="I343">
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -10923,8 +10917,8 @@
       <c r="H344">
         <v>22</v>
       </c>
-      <c r="I344" t="s">
-        <v>8</v>
+      <c r="I344">
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -10952,8 +10946,8 @@
       <c r="H345">
         <v>33</v>
       </c>
-      <c r="I345" t="s">
-        <v>8</v>
+      <c r="I345">
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -10981,8 +10975,8 @@
       <c r="H346">
         <v>57</v>
       </c>
-      <c r="I346" t="s">
-        <v>8</v>
+      <c r="I346">
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -11010,8 +11004,8 @@
       <c r="H347">
         <v>49</v>
       </c>
-      <c r="I347" t="s">
-        <v>8</v>
+      <c r="I347">
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -11039,8 +11033,8 @@
       <c r="H348">
         <v>22</v>
       </c>
-      <c r="I348" t="s">
-        <v>8</v>
+      <c r="I348">
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -11068,8 +11062,8 @@
       <c r="H349">
         <v>23</v>
       </c>
-      <c r="I349" t="s">
-        <v>8</v>
+      <c r="I349">
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -11097,8 +11091,8 @@
       <c r="H350">
         <v>26</v>
       </c>
-      <c r="I350" t="s">
-        <v>8</v>
+      <c r="I350">
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -11126,8 +11120,8 @@
       <c r="H351">
         <v>37</v>
       </c>
-      <c r="I351" t="s">
-        <v>7</v>
+      <c r="I351">
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -11155,8 +11149,8 @@
       <c r="H352">
         <v>29</v>
       </c>
-      <c r="I352" t="s">
-        <v>8</v>
+      <c r="I352">
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -11184,8 +11178,8 @@
       <c r="H353">
         <v>30</v>
       </c>
-      <c r="I353" t="s">
-        <v>8</v>
+      <c r="I353">
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -11213,8 +11207,8 @@
       <c r="H354">
         <v>46</v>
       </c>
-      <c r="I354" t="s">
-        <v>8</v>
+      <c r="I354">
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -11242,8 +11236,8 @@
       <c r="H355">
         <v>24</v>
       </c>
-      <c r="I355" t="s">
-        <v>8</v>
+      <c r="I355">
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -11271,8 +11265,8 @@
       <c r="H356">
         <v>21</v>
       </c>
-      <c r="I356" t="s">
-        <v>8</v>
+      <c r="I356">
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -11300,8 +11294,8 @@
       <c r="H357">
         <v>49</v>
       </c>
-      <c r="I357" t="s">
-        <v>7</v>
+      <c r="I357">
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -11329,8 +11323,8 @@
       <c r="H358">
         <v>28</v>
       </c>
-      <c r="I358" t="s">
-        <v>7</v>
+      <c r="I358">
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -11358,8 +11352,8 @@
       <c r="H359">
         <v>44</v>
       </c>
-      <c r="I359" t="s">
-        <v>7</v>
+      <c r="I359">
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -11387,8 +11381,8 @@
       <c r="H360">
         <v>48</v>
       </c>
-      <c r="I360" t="s">
-        <v>8</v>
+      <c r="I360">
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -11416,8 +11410,8 @@
       <c r="H361">
         <v>29</v>
       </c>
-      <c r="I361" t="s">
-        <v>7</v>
+      <c r="I361">
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -11445,8 +11439,8 @@
       <c r="H362">
         <v>29</v>
       </c>
-      <c r="I362" t="s">
-        <v>7</v>
+      <c r="I362">
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -11474,8 +11468,8 @@
       <c r="H363">
         <v>63</v>
       </c>
-      <c r="I363" t="s">
-        <v>8</v>
+      <c r="I363">
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -11503,8 +11497,8 @@
       <c r="H364">
         <v>65</v>
       </c>
-      <c r="I364" t="s">
-        <v>8</v>
+      <c r="I364">
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -11532,8 +11526,8 @@
       <c r="H365">
         <v>67</v>
       </c>
-      <c r="I365" t="s">
-        <v>7</v>
+      <c r="I365">
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -11561,8 +11555,8 @@
       <c r="H366">
         <v>30</v>
       </c>
-      <c r="I366" t="s">
-        <v>8</v>
+      <c r="I366">
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -11590,8 +11584,8 @@
       <c r="H367">
         <v>30</v>
       </c>
-      <c r="I367" t="s">
-        <v>8</v>
+      <c r="I367">
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
@@ -11619,8 +11613,8 @@
       <c r="H368">
         <v>29</v>
       </c>
-      <c r="I368" t="s">
-        <v>7</v>
+      <c r="I368">
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
@@ -11648,8 +11642,8 @@
       <c r="H369">
         <v>21</v>
       </c>
-      <c r="I369" t="s">
-        <v>8</v>
+      <c r="I369">
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
@@ -11677,8 +11671,8 @@
       <c r="H370">
         <v>22</v>
       </c>
-      <c r="I370" t="s">
-        <v>8</v>
+      <c r="I370">
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
@@ -11706,8 +11700,8 @@
       <c r="H371">
         <v>45</v>
       </c>
-      <c r="I371" t="s">
-        <v>7</v>
+      <c r="I371">
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
@@ -11735,8 +11729,8 @@
       <c r="H372">
         <v>25</v>
       </c>
-      <c r="I372" t="s">
-        <v>7</v>
+      <c r="I372">
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
@@ -11764,8 +11758,8 @@
       <c r="H373">
         <v>21</v>
       </c>
-      <c r="I373" t="s">
-        <v>8</v>
+      <c r="I373">
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
@@ -11793,8 +11787,8 @@
       <c r="H374">
         <v>21</v>
       </c>
-      <c r="I374" t="s">
-        <v>8</v>
+      <c r="I374">
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
@@ -11822,8 +11816,8 @@
       <c r="H375">
         <v>25</v>
       </c>
-      <c r="I375" t="s">
-        <v>8</v>
+      <c r="I375">
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
@@ -11851,8 +11845,8 @@
       <c r="H376">
         <v>28</v>
       </c>
-      <c r="I376" t="s">
-        <v>8</v>
+      <c r="I376">
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
@@ -11880,8 +11874,8 @@
       <c r="H377">
         <v>58</v>
       </c>
-      <c r="I377" t="s">
-        <v>7</v>
+      <c r="I377">
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
@@ -11909,8 +11903,8 @@
       <c r="H378">
         <v>22</v>
       </c>
-      <c r="I378" t="s">
-        <v>8</v>
+      <c r="I378">
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
@@ -11938,8 +11932,8 @@
       <c r="H379">
         <v>22</v>
       </c>
-      <c r="I379" t="s">
-        <v>8</v>
+      <c r="I379">
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
@@ -11967,8 +11961,8 @@
       <c r="H380">
         <v>32</v>
       </c>
-      <c r="I380" t="s">
-        <v>7</v>
+      <c r="I380">
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
@@ -11996,8 +11990,8 @@
       <c r="H381">
         <v>35</v>
       </c>
-      <c r="I381" t="s">
-        <v>8</v>
+      <c r="I381">
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
@@ -12025,8 +12019,8 @@
       <c r="H382">
         <v>24</v>
       </c>
-      <c r="I382" t="s">
-        <v>8</v>
+      <c r="I382">
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
@@ -12054,8 +12048,8 @@
       <c r="H383">
         <v>22</v>
       </c>
-      <c r="I383" t="s">
-        <v>8</v>
+      <c r="I383">
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
@@ -12083,8 +12077,8 @@
       <c r="H384">
         <v>21</v>
       </c>
-      <c r="I384" t="s">
-        <v>8</v>
+      <c r="I384">
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
@@ -12112,8 +12106,8 @@
       <c r="H385">
         <v>25</v>
       </c>
-      <c r="I385" t="s">
-        <v>8</v>
+      <c r="I385">
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
@@ -12141,8 +12135,8 @@
       <c r="H386">
         <v>25</v>
       </c>
-      <c r="I386" t="s">
-        <v>8</v>
+      <c r="I386">
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
@@ -12170,8 +12164,8 @@
       <c r="H387">
         <v>24</v>
       </c>
-      <c r="I387" t="s">
-        <v>8</v>
+      <c r="I387">
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
@@ -12199,8 +12193,8 @@
       <c r="H388">
         <v>35</v>
       </c>
-      <c r="I388" t="s">
-        <v>7</v>
+      <c r="I388">
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
@@ -12228,8 +12222,8 @@
       <c r="H389">
         <v>45</v>
       </c>
-      <c r="I389" t="s">
-        <v>7</v>
+      <c r="I389">
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
@@ -12257,8 +12251,8 @@
       <c r="H390">
         <v>58</v>
       </c>
-      <c r="I390" t="s">
-        <v>7</v>
+      <c r="I390">
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
@@ -12286,8 +12280,8 @@
       <c r="H391">
         <v>28</v>
       </c>
-      <c r="I391" t="s">
-        <v>8</v>
+      <c r="I391">
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
@@ -12315,8 +12309,8 @@
       <c r="H392">
         <v>42</v>
       </c>
-      <c r="I392" t="s">
-        <v>8</v>
+      <c r="I392">
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
@@ -12344,8 +12338,8 @@
       <c r="H393">
         <v>27</v>
       </c>
-      <c r="I393" t="s">
-        <v>7</v>
+      <c r="I393">
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
@@ -12373,8 +12367,8 @@
       <c r="H394">
         <v>21</v>
       </c>
-      <c r="I394" t="s">
-        <v>8</v>
+      <c r="I394">
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
@@ -12402,8 +12396,8 @@
       <c r="H395">
         <v>37</v>
       </c>
-      <c r="I395" t="s">
-        <v>8</v>
+      <c r="I395">
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
@@ -12431,8 +12425,8 @@
       <c r="H396">
         <v>31</v>
       </c>
-      <c r="I396" t="s">
-        <v>7</v>
+      <c r="I396">
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
@@ -12460,8 +12454,8 @@
       <c r="H397">
         <v>25</v>
       </c>
-      <c r="I397" t="s">
-        <v>8</v>
+      <c r="I397">
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
@@ -12489,8 +12483,8 @@
       <c r="H398">
         <v>39</v>
       </c>
-      <c r="I398" t="s">
-        <v>8</v>
+      <c r="I398">
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
@@ -12518,8 +12512,8 @@
       <c r="H399">
         <v>22</v>
       </c>
-      <c r="I399" t="s">
-        <v>7</v>
+      <c r="I399">
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
@@ -12547,8 +12541,8 @@
       <c r="H400">
         <v>25</v>
       </c>
-      <c r="I400" t="s">
-        <v>8</v>
+      <c r="I400">
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
@@ -12576,8 +12570,8 @@
       <c r="H401">
         <v>25</v>
       </c>
-      <c r="I401" t="s">
-        <v>7</v>
+      <c r="I401">
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
@@ -12605,8 +12599,8 @@
       <c r="H402">
         <v>31</v>
       </c>
-      <c r="I402" t="s">
-        <v>7</v>
+      <c r="I402">
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
@@ -12634,8 +12628,8 @@
       <c r="H403">
         <v>55</v>
       </c>
-      <c r="I403" t="s">
-        <v>8</v>
+      <c r="I403">
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
@@ -12663,8 +12657,8 @@
       <c r="H404">
         <v>35</v>
       </c>
-      <c r="I404" t="s">
-        <v>7</v>
+      <c r="I404">
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
@@ -12692,8 +12686,8 @@
       <c r="H405">
         <v>38</v>
       </c>
-      <c r="I405" t="s">
-        <v>8</v>
+      <c r="I405">
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
@@ -12721,8 +12715,8 @@
       <c r="H406">
         <v>41</v>
       </c>
-      <c r="I406" t="s">
-        <v>7</v>
+      <c r="I406">
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
@@ -12750,8 +12744,8 @@
       <c r="H407">
         <v>26</v>
       </c>
-      <c r="I407" t="s">
-        <v>8</v>
+      <c r="I407">
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
@@ -12779,8 +12773,8 @@
       <c r="H408">
         <v>46</v>
       </c>
-      <c r="I408" t="s">
-        <v>7</v>
+      <c r="I408">
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
@@ -12808,8 +12802,8 @@
       <c r="H409">
         <v>25</v>
       </c>
-      <c r="I409" t="s">
-        <v>8</v>
+      <c r="I409">
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
@@ -12837,8 +12831,8 @@
       <c r="H410">
         <v>39</v>
       </c>
-      <c r="I410" t="s">
-        <v>7</v>
+      <c r="I410">
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
@@ -12866,8 +12860,8 @@
       <c r="H411">
         <v>28</v>
       </c>
-      <c r="I411" t="s">
-        <v>7</v>
+      <c r="I411">
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
@@ -12895,8 +12889,8 @@
       <c r="H412">
         <v>28</v>
       </c>
-      <c r="I412" t="s">
-        <v>8</v>
+      <c r="I412">
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
@@ -12924,8 +12918,8 @@
       <c r="H413">
         <v>25</v>
       </c>
-      <c r="I413" t="s">
-        <v>8</v>
+      <c r="I413">
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
@@ -12953,8 +12947,8 @@
       <c r="H414">
         <v>22</v>
       </c>
-      <c r="I414" t="s">
-        <v>8</v>
+      <c r="I414">
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
@@ -12982,8 +12976,8 @@
       <c r="H415">
         <v>21</v>
       </c>
-      <c r="I415" t="s">
-        <v>8</v>
+      <c r="I415">
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
@@ -13011,8 +13005,8 @@
       <c r="H416">
         <v>21</v>
       </c>
-      <c r="I416" t="s">
-        <v>7</v>
+      <c r="I416">
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
@@ -13040,8 +13034,8 @@
       <c r="H417">
         <v>22</v>
       </c>
-      <c r="I417" t="s">
-        <v>7</v>
+      <c r="I417">
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
@@ -13069,8 +13063,8 @@
       <c r="H418">
         <v>22</v>
       </c>
-      <c r="I418" t="s">
-        <v>8</v>
+      <c r="I418">
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
@@ -13098,8 +13092,8 @@
       <c r="H419">
         <v>37</v>
       </c>
-      <c r="I419" t="s">
-        <v>7</v>
+      <c r="I419">
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
@@ -13127,8 +13121,8 @@
       <c r="H420">
         <v>27</v>
       </c>
-      <c r="I420" t="s">
-        <v>8</v>
+      <c r="I420">
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
@@ -13156,8 +13150,8 @@
       <c r="H421">
         <v>28</v>
       </c>
-      <c r="I421" t="s">
-        <v>7</v>
+      <c r="I421">
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
@@ -13185,8 +13179,8 @@
       <c r="H422">
         <v>26</v>
       </c>
-      <c r="I422" t="s">
-        <v>8</v>
+      <c r="I422">
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
@@ -13214,8 +13208,8 @@
       <c r="H423">
         <v>21</v>
       </c>
-      <c r="I423" t="s">
-        <v>8</v>
+      <c r="I423">
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
@@ -13243,8 +13237,8 @@
       <c r="H424">
         <v>21</v>
       </c>
-      <c r="I424" t="s">
-        <v>8</v>
+      <c r="I424">
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
@@ -13272,8 +13266,8 @@
       <c r="H425">
         <v>21</v>
       </c>
-      <c r="I425" t="s">
-        <v>8</v>
+      <c r="I425">
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
@@ -13301,8 +13295,8 @@
       <c r="H426">
         <v>36</v>
       </c>
-      <c r="I426" t="s">
-        <v>7</v>
+      <c r="I426">
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
@@ -13330,8 +13324,8 @@
       <c r="H427">
         <v>31</v>
       </c>
-      <c r="I427" t="s">
-        <v>7</v>
+      <c r="I427">
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
@@ -13359,8 +13353,8 @@
       <c r="H428">
         <v>25</v>
       </c>
-      <c r="I428" t="s">
-        <v>8</v>
+      <c r="I428">
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
@@ -13388,8 +13382,8 @@
       <c r="H429">
         <v>38</v>
       </c>
-      <c r="I429" t="s">
-        <v>7</v>
+      <c r="I429">
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
@@ -13417,8 +13411,8 @@
       <c r="H430">
         <v>26</v>
       </c>
-      <c r="I430" t="s">
-        <v>8</v>
+      <c r="I430">
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
@@ -13446,8 +13440,8 @@
       <c r="H431">
         <v>43</v>
       </c>
-      <c r="I431" t="s">
-        <v>7</v>
+      <c r="I431">
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
@@ -13475,8 +13469,8 @@
       <c r="H432">
         <v>23</v>
       </c>
-      <c r="I432" t="s">
-        <v>8</v>
+      <c r="I432">
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
@@ -13504,8 +13498,8 @@
       <c r="H433">
         <v>38</v>
       </c>
-      <c r="I433" t="s">
-        <v>8</v>
+      <c r="I433">
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
@@ -13533,8 +13527,8 @@
       <c r="H434">
         <v>22</v>
       </c>
-      <c r="I434" t="s">
-        <v>8</v>
+      <c r="I434">
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
@@ -13562,8 +13556,8 @@
       <c r="H435">
         <v>29</v>
       </c>
-      <c r="I435" t="s">
-        <v>8</v>
+      <c r="I435">
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
@@ -13591,8 +13585,8 @@
       <c r="H436">
         <v>36</v>
       </c>
-      <c r="I436" t="s">
-        <v>8</v>
+      <c r="I436">
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
@@ -13620,8 +13614,8 @@
       <c r="H437">
         <v>29</v>
       </c>
-      <c r="I437" t="s">
-        <v>7</v>
+      <c r="I437">
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
@@ -13649,8 +13643,8 @@
       <c r="H438">
         <v>41</v>
       </c>
-      <c r="I438" t="s">
-        <v>8</v>
+      <c r="I438">
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
@@ -13678,8 +13672,8 @@
       <c r="H439">
         <v>28</v>
       </c>
-      <c r="I439" t="s">
-        <v>8</v>
+      <c r="I439">
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
@@ -13707,8 +13701,8 @@
       <c r="H440">
         <v>21</v>
       </c>
-      <c r="I440" t="s">
-        <v>8</v>
+      <c r="I440">
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
@@ -13736,8 +13730,8 @@
       <c r="H441">
         <v>31</v>
       </c>
-      <c r="I441" t="s">
-        <v>8</v>
+      <c r="I441">
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
@@ -13765,8 +13759,8 @@
       <c r="H442">
         <v>41</v>
       </c>
-      <c r="I442" t="s">
-        <v>7</v>
+      <c r="I442">
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.25">
@@ -13794,8 +13788,8 @@
       <c r="H443">
         <v>22</v>
       </c>
-      <c r="I443" t="s">
-        <v>8</v>
+      <c r="I443">
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.25">
@@ -13823,8 +13817,8 @@
       <c r="H444">
         <v>24</v>
       </c>
-      <c r="I444" t="s">
-        <v>8</v>
+      <c r="I444">
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.25">
@@ -13852,8 +13846,8 @@
       <c r="H445">
         <v>33</v>
       </c>
-      <c r="I445" t="s">
-        <v>7</v>
+      <c r="I445">
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.25">
@@ -13881,8 +13875,8 @@
       <c r="H446">
         <v>30</v>
       </c>
-      <c r="I446" t="s">
-        <v>7</v>
+      <c r="I446">
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.25">
@@ -13910,8 +13904,8 @@
       <c r="H447">
         <v>25</v>
       </c>
-      <c r="I447" t="s">
-        <v>7</v>
+      <c r="I447">
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.25">
@@ -13939,8 +13933,8 @@
       <c r="H448">
         <v>28</v>
       </c>
-      <c r="I448" t="s">
-        <v>8</v>
+      <c r="I448">
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.25">
@@ -13968,8 +13962,8 @@
       <c r="H449">
         <v>26</v>
       </c>
-      <c r="I449" t="s">
-        <v>8</v>
+      <c r="I449">
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.25">
@@ -13997,8 +13991,8 @@
       <c r="H450">
         <v>22</v>
       </c>
-      <c r="I450" t="s">
-        <v>7</v>
+      <c r="I450">
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.25">
@@ -14026,8 +14020,8 @@
       <c r="H451">
         <v>26</v>
       </c>
-      <c r="I451" t="s">
-        <v>8</v>
+      <c r="I451">
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.25">
@@ -14055,8 +14049,8 @@
       <c r="H452">
         <v>23</v>
       </c>
-      <c r="I452" t="s">
-        <v>8</v>
+      <c r="I452">
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.25">
@@ -14084,8 +14078,8 @@
       <c r="H453">
         <v>23</v>
       </c>
-      <c r="I453" t="s">
-        <v>7</v>
+      <c r="I453">
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.25">
@@ -14113,8 +14107,8 @@
       <c r="H454">
         <v>25</v>
       </c>
-      <c r="I454" t="s">
-        <v>8</v>
+      <c r="I454">
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.25">
@@ -14142,8 +14136,8 @@
       <c r="H455">
         <v>72</v>
       </c>
-      <c r="I455" t="s">
-        <v>8</v>
+      <c r="I455">
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.25">
@@ -14171,8 +14165,8 @@
       <c r="H456">
         <v>24</v>
       </c>
-      <c r="I456" t="s">
-        <v>8</v>
+      <c r="I456">
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.25">
@@ -14200,8 +14194,8 @@
       <c r="H457">
         <v>38</v>
       </c>
-      <c r="I457" t="s">
-        <v>7</v>
+      <c r="I457">
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.25">
@@ -14229,8 +14223,8 @@
       <c r="H458">
         <v>62</v>
       </c>
-      <c r="I458" t="s">
-        <v>8</v>
+      <c r="I458">
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.25">
@@ -14258,8 +14252,8 @@
       <c r="H459">
         <v>24</v>
       </c>
-      <c r="I459" t="s">
-        <v>8</v>
+      <c r="I459">
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.25">
@@ -14287,8 +14281,8 @@
       <c r="H460">
         <v>51</v>
       </c>
-      <c r="I460" t="s">
-        <v>7</v>
+      <c r="I460">
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.25">
@@ -14316,8 +14310,8 @@
       <c r="H461">
         <v>81</v>
       </c>
-      <c r="I461" t="s">
-        <v>8</v>
+      <c r="I461">
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.25">
@@ -14345,8 +14339,8 @@
       <c r="H462">
         <v>48</v>
       </c>
-      <c r="I462" t="s">
-        <v>8</v>
+      <c r="I462">
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.25">
@@ -14374,8 +14368,8 @@
       <c r="H463">
         <v>26</v>
       </c>
-      <c r="I463" t="s">
-        <v>8</v>
+      <c r="I463">
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.25">
@@ -14403,8 +14397,8 @@
       <c r="H464">
         <v>39</v>
       </c>
-      <c r="I464" t="s">
-        <v>8</v>
+      <c r="I464">
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.25">
@@ -14432,8 +14426,8 @@
       <c r="H465">
         <v>37</v>
       </c>
-      <c r="I465" t="s">
-        <v>8</v>
+      <c r="I465">
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.25">
@@ -14461,8 +14455,8 @@
       <c r="H466">
         <v>34</v>
       </c>
-      <c r="I466" t="s">
-        <v>8</v>
+      <c r="I466">
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.25">
@@ -14490,8 +14484,8 @@
       <c r="H467">
         <v>21</v>
       </c>
-      <c r="I467" t="s">
-        <v>8</v>
+      <c r="I467">
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.25">
@@ -14519,8 +14513,8 @@
       <c r="H468">
         <v>22</v>
       </c>
-      <c r="I468" t="s">
-        <v>8</v>
+      <c r="I468">
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.25">
@@ -14548,8 +14542,8 @@
       <c r="H469">
         <v>25</v>
       </c>
-      <c r="I469" t="s">
-        <v>8</v>
+      <c r="I469">
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.25">
@@ -14577,8 +14571,8 @@
       <c r="H470">
         <v>38</v>
       </c>
-      <c r="I470" t="s">
-        <v>7</v>
+      <c r="I470">
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.25">
@@ -14606,8 +14600,8 @@
       <c r="H471">
         <v>27</v>
       </c>
-      <c r="I471" t="s">
-        <v>8</v>
+      <c r="I471">
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.25">
@@ -14635,8 +14629,8 @@
       <c r="H472">
         <v>28</v>
       </c>
-      <c r="I472" t="s">
-        <v>8</v>
+      <c r="I472">
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.25">
@@ -14664,8 +14658,8 @@
       <c r="H473">
         <v>22</v>
       </c>
-      <c r="I473" t="s">
-        <v>8</v>
+      <c r="I473">
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.25">
@@ -14693,8 +14687,8 @@
       <c r="H474">
         <v>22</v>
       </c>
-      <c r="I474" t="s">
-        <v>8</v>
+      <c r="I474">
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.25">
@@ -14722,8 +14716,8 @@
       <c r="H475">
         <v>50</v>
       </c>
-      <c r="I475" t="s">
-        <v>8</v>
+      <c r="I475">
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.25">
@@ -14751,8 +14745,8 @@
       <c r="H476">
         <v>24</v>
       </c>
-      <c r="I476" t="s">
-        <v>8</v>
+      <c r="I476">
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.25">
@@ -14780,8 +14774,8 @@
       <c r="H477">
         <v>59</v>
       </c>
-      <c r="I477" t="s">
-        <v>8</v>
+      <c r="I477">
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.25">
@@ -14809,8 +14803,8 @@
       <c r="H478">
         <v>29</v>
       </c>
-      <c r="I478" t="s">
-        <v>7</v>
+      <c r="I478">
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.25">
@@ -14838,8 +14832,8 @@
       <c r="H479">
         <v>31</v>
       </c>
-      <c r="I479" t="s">
-        <v>8</v>
+      <c r="I479">
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.25">
@@ -14867,8 +14861,8 @@
       <c r="H480">
         <v>39</v>
       </c>
-      <c r="I480" t="s">
-        <v>8</v>
+      <c r="I480">
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.25">
@@ -14896,8 +14890,8 @@
       <c r="H481">
         <v>63</v>
       </c>
-      <c r="I481" t="s">
-        <v>8</v>
+      <c r="I481">
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.25">
@@ -14925,8 +14919,8 @@
       <c r="H482">
         <v>35</v>
       </c>
-      <c r="I482" t="s">
-        <v>7</v>
+      <c r="I482">
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.25">
@@ -14954,8 +14948,8 @@
       <c r="H483">
         <v>29</v>
       </c>
-      <c r="I483" t="s">
-        <v>8</v>
+      <c r="I483">
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.25">
@@ -14983,8 +14977,8 @@
       <c r="H484">
         <v>28</v>
       </c>
-      <c r="I484" t="s">
-        <v>8</v>
+      <c r="I484">
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.25">
@@ -15012,8 +15006,8 @@
       <c r="H485">
         <v>23</v>
       </c>
-      <c r="I485" t="s">
-        <v>8</v>
+      <c r="I485">
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.25">
@@ -15041,8 +15035,8 @@
       <c r="H486">
         <v>31</v>
       </c>
-      <c r="I486" t="s">
-        <v>7</v>
+      <c r="I486">
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.25">
@@ -15070,8 +15064,8 @@
       <c r="H487">
         <v>24</v>
       </c>
-      <c r="I487" t="s">
-        <v>7</v>
+      <c r="I487">
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.25">
@@ -15099,8 +15093,8 @@
       <c r="H488">
         <v>21</v>
       </c>
-      <c r="I488" t="s">
-        <v>8</v>
+      <c r="I488">
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.25">
@@ -15128,8 +15122,8 @@
       <c r="H489">
         <v>58</v>
       </c>
-      <c r="I489" t="s">
-        <v>8</v>
+      <c r="I489">
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.25">
@@ -15157,8 +15151,8 @@
       <c r="H490">
         <v>28</v>
       </c>
-      <c r="I490" t="s">
-        <v>8</v>
+      <c r="I490">
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.25">
@@ -15186,8 +15180,8 @@
       <c r="H491">
         <v>67</v>
       </c>
-      <c r="I491" t="s">
-        <v>8</v>
+      <c r="I491">
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.25">
@@ -15215,8 +15209,8 @@
       <c r="H492">
         <v>24</v>
       </c>
-      <c r="I492" t="s">
-        <v>8</v>
+      <c r="I492">
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.25">
@@ -15244,8 +15238,8 @@
       <c r="H493">
         <v>42</v>
       </c>
-      <c r="I493" t="s">
-        <v>8</v>
+      <c r="I493">
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.25">
@@ -15273,8 +15267,8 @@
       <c r="H494">
         <v>33</v>
       </c>
-      <c r="I494" t="s">
-        <v>8</v>
+      <c r="I494">
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.25">
@@ -15302,8 +15296,8 @@
       <c r="H495">
         <v>45</v>
       </c>
-      <c r="I495" t="s">
-        <v>7</v>
+      <c r="I495">
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.25">
@@ -15331,8 +15325,8 @@
       <c r="H496">
         <v>22</v>
       </c>
-      <c r="I496" t="s">
-        <v>8</v>
+      <c r="I496">
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.25">
@@ -15360,8 +15354,8 @@
       <c r="H497">
         <v>66</v>
       </c>
-      <c r="I497" t="s">
-        <v>8</v>
+      <c r="I497">
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
@@ -15389,8 +15383,8 @@
       <c r="H498">
         <v>30</v>
       </c>
-      <c r="I498" t="s">
-        <v>8</v>
+      <c r="I498">
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.25">
@@ -15418,8 +15412,8 @@
       <c r="H499">
         <v>25</v>
       </c>
-      <c r="I499" t="s">
-        <v>8</v>
+      <c r="I499">
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.25">
@@ -15447,8 +15441,8 @@
       <c r="H500">
         <v>55</v>
       </c>
-      <c r="I500" t="s">
-        <v>7</v>
+      <c r="I500">
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.25">
@@ -15476,8 +15470,8 @@
       <c r="H501">
         <v>39</v>
       </c>
-      <c r="I501" t="s">
-        <v>8</v>
+      <c r="I501">
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.25">
@@ -15505,8 +15499,8 @@
       <c r="H502">
         <v>21</v>
       </c>
-      <c r="I502" t="s">
-        <v>8</v>
+      <c r="I502">
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.25">
@@ -15534,8 +15528,8 @@
       <c r="H503">
         <v>28</v>
       </c>
-      <c r="I503" t="s">
-        <v>8</v>
+      <c r="I503">
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.25">
@@ -15563,8 +15557,8 @@
       <c r="H504">
         <v>41</v>
       </c>
-      <c r="I504" t="s">
-        <v>7</v>
+      <c r="I504">
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.25">
@@ -15592,8 +15586,8 @@
       <c r="H505">
         <v>41</v>
       </c>
-      <c r="I505" t="s">
-        <v>8</v>
+      <c r="I505">
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.25">
@@ -15621,8 +15615,8 @@
       <c r="H506">
         <v>40</v>
       </c>
-      <c r="I506" t="s">
-        <v>8</v>
+      <c r="I506">
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.25">
@@ -15650,8 +15644,8 @@
       <c r="H507">
         <v>38</v>
       </c>
-      <c r="I507" t="s">
-        <v>8</v>
+      <c r="I507">
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.25">
@@ -15679,8 +15673,8 @@
       <c r="H508">
         <v>35</v>
       </c>
-      <c r="I508" t="s">
-        <v>7</v>
+      <c r="I508">
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.25">
@@ -15708,8 +15702,8 @@
       <c r="H509">
         <v>21</v>
       </c>
-      <c r="I509" t="s">
-        <v>8</v>
+      <c r="I509">
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.25">
@@ -15737,8 +15731,8 @@
       <c r="H510">
         <v>21</v>
       </c>
-      <c r="I510" t="s">
-        <v>8</v>
+      <c r="I510">
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.25">
@@ -15766,8 +15760,8 @@
       <c r="H511">
         <v>64</v>
       </c>
-      <c r="I511" t="s">
-        <v>8</v>
+      <c r="I511">
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.25">
@@ -15795,8 +15789,8 @@
       <c r="H512">
         <v>46</v>
       </c>
-      <c r="I512" t="s">
-        <v>7</v>
+      <c r="I512">
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.25">
@@ -15824,8 +15818,8 @@
       <c r="H513">
         <v>21</v>
       </c>
-      <c r="I513" t="s">
-        <v>8</v>
+      <c r="I513">
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.25">
@@ -15853,8 +15847,8 @@
       <c r="H514">
         <v>58</v>
       </c>
-      <c r="I514" t="s">
-        <v>8</v>
+      <c r="I514">
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.25">
@@ -15882,8 +15876,8 @@
       <c r="H515">
         <v>22</v>
       </c>
-      <c r="I515" t="s">
-        <v>8</v>
+      <c r="I515">
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.25">
@@ -15911,8 +15905,8 @@
       <c r="H516">
         <v>24</v>
       </c>
-      <c r="I516" t="s">
-        <v>8</v>
+      <c r="I516">
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.25">
@@ -15940,8 +15934,8 @@
       <c r="H517">
         <v>28</v>
       </c>
-      <c r="I517" t="s">
-        <v>7</v>
+      <c r="I517">
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.25">
@@ -15969,8 +15963,8 @@
       <c r="H518">
         <v>53</v>
       </c>
-      <c r="I518" t="s">
-        <v>7</v>
+      <c r="I518">
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.25">
@@ -15998,8 +15992,8 @@
       <c r="H519">
         <v>51</v>
       </c>
-      <c r="I519" t="s">
-        <v>8</v>
+      <c r="I519">
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.25">
@@ -16027,8 +16021,8 @@
       <c r="H520">
         <v>41</v>
       </c>
-      <c r="I520" t="s">
-        <v>8</v>
+      <c r="I520">
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.25">
@@ -16056,8 +16050,8 @@
       <c r="H521">
         <v>60</v>
       </c>
-      <c r="I521" t="s">
-        <v>8</v>
+      <c r="I521">
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.25">
@@ -16085,8 +16079,8 @@
       <c r="H522">
         <v>25</v>
       </c>
-      <c r="I522" t="s">
-        <v>8</v>
+      <c r="I522">
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.25">
@@ -16114,8 +16108,8 @@
       <c r="H523">
         <v>26</v>
       </c>
-      <c r="I523" t="s">
-        <v>8</v>
+      <c r="I523">
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.25">
@@ -16143,8 +16137,8 @@
       <c r="H524">
         <v>26</v>
       </c>
-      <c r="I524" t="s">
-        <v>8</v>
+      <c r="I524">
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.25">
@@ -16172,8 +16166,8 @@
       <c r="H525">
         <v>45</v>
       </c>
-      <c r="I525" t="s">
-        <v>7</v>
+      <c r="I525">
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.25">
@@ -16201,8 +16195,8 @@
       <c r="H526">
         <v>24</v>
       </c>
-      <c r="I526" t="s">
-        <v>8</v>
+      <c r="I526">
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.25">
@@ -16230,8 +16224,8 @@
       <c r="H527">
         <v>21</v>
       </c>
-      <c r="I527" t="s">
-        <v>8</v>
+      <c r="I527">
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.25">
@@ -16259,8 +16253,8 @@
       <c r="H528">
         <v>21</v>
       </c>
-      <c r="I528" t="s">
-        <v>8</v>
+      <c r="I528">
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.25">
@@ -16288,8 +16282,8 @@
       <c r="H529">
         <v>24</v>
       </c>
-      <c r="I529" t="s">
-        <v>8</v>
+      <c r="I529">
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.25">
@@ -16317,8 +16311,8 @@
       <c r="H530">
         <v>22</v>
       </c>
-      <c r="I530" t="s">
-        <v>8</v>
+      <c r="I530">
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.25">
@@ -16346,8 +16340,8 @@
       <c r="H531">
         <v>31</v>
       </c>
-      <c r="I531" t="s">
-        <v>8</v>
+      <c r="I531">
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.25">
@@ -16375,8 +16369,8 @@
       <c r="H532">
         <v>22</v>
       </c>
-      <c r="I532" t="s">
-        <v>8</v>
+      <c r="I532">
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.25">
@@ -16404,8 +16398,8 @@
       <c r="H533">
         <v>24</v>
       </c>
-      <c r="I533" t="s">
-        <v>8</v>
+      <c r="I533">
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.25">
@@ -16433,8 +16427,8 @@
       <c r="H534">
         <v>29</v>
       </c>
-      <c r="I534" t="s">
-        <v>8</v>
+      <c r="I534">
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.25">
@@ -16462,8 +16456,8 @@
       <c r="H535">
         <v>31</v>
       </c>
-      <c r="I535" t="s">
-        <v>8</v>
+      <c r="I535">
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.25">
@@ -16491,8 +16485,8 @@
       <c r="H536">
         <v>24</v>
       </c>
-      <c r="I536" t="s">
-        <v>8</v>
+      <c r="I536">
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.25">
@@ -16520,8 +16514,8 @@
       <c r="H537">
         <v>23</v>
       </c>
-      <c r="I537" t="s">
-        <v>7</v>
+      <c r="I537">
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:9" x14ac:dyDescent="0.25">
@@ -16549,8 +16543,8 @@
       <c r="H538">
         <v>46</v>
       </c>
-      <c r="I538" t="s">
-        <v>8</v>
+      <c r="I538">
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.25">
@@ -16578,8 +16572,8 @@
       <c r="H539">
         <v>67</v>
       </c>
-      <c r="I539" t="s">
-        <v>8</v>
+      <c r="I539">
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.25">
@@ -16607,8 +16601,8 @@
       <c r="H540">
         <v>23</v>
       </c>
-      <c r="I540" t="s">
-        <v>8</v>
+      <c r="I540">
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.25">
@@ -16636,8 +16630,8 @@
       <c r="H541">
         <v>32</v>
       </c>
-      <c r="I541" t="s">
-        <v>7</v>
+      <c r="I541">
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:9" x14ac:dyDescent="0.25">
@@ -16665,8 +16659,8 @@
       <c r="H542">
         <v>43</v>
       </c>
-      <c r="I542" t="s">
-        <v>7</v>
+      <c r="I542">
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.25">
@@ -16694,8 +16688,8 @@
       <c r="H543">
         <v>27</v>
       </c>
-      <c r="I543" t="s">
-        <v>7</v>
+      <c r="I543">
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.25">
@@ -16723,8 +16717,8 @@
       <c r="H544">
         <v>56</v>
       </c>
-      <c r="I544" t="s">
-        <v>7</v>
+      <c r="I544">
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.25">
@@ -16752,8 +16746,8 @@
       <c r="H545">
         <v>25</v>
       </c>
-      <c r="I545" t="s">
-        <v>8</v>
+      <c r="I545">
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.25">
@@ -16781,8 +16775,8 @@
       <c r="H546">
         <v>29</v>
       </c>
-      <c r="I546" t="s">
-        <v>8</v>
+      <c r="I546">
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.25">
@@ -16810,8 +16804,8 @@
       <c r="H547">
         <v>37</v>
       </c>
-      <c r="I547" t="s">
-        <v>7</v>
+      <c r="I547">
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.25">
@@ -16839,8 +16833,8 @@
       <c r="H548">
         <v>53</v>
       </c>
-      <c r="I548" t="s">
-        <v>7</v>
+      <c r="I548">
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.25">
@@ -16868,8 +16862,8 @@
       <c r="H549">
         <v>28</v>
       </c>
-      <c r="I549" t="s">
-        <v>8</v>
+      <c r="I549">
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.25">
@@ -16897,8 +16891,8 @@
       <c r="H550">
         <v>50</v>
       </c>
-      <c r="I550" t="s">
-        <v>8</v>
+      <c r="I550">
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.25">
@@ -16926,8 +16920,8 @@
       <c r="H551">
         <v>37</v>
       </c>
-      <c r="I551" t="s">
-        <v>8</v>
+      <c r="I551">
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.25">
@@ -16955,8 +16949,8 @@
       <c r="H552">
         <v>21</v>
       </c>
-      <c r="I552" t="s">
-        <v>8</v>
+      <c r="I552">
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.25">
@@ -16984,8 +16978,8 @@
       <c r="H553">
         <v>25</v>
       </c>
-      <c r="I553" t="s">
-        <v>8</v>
+      <c r="I553">
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.25">
@@ -17013,8 +17007,8 @@
       <c r="H554">
         <v>66</v>
       </c>
-      <c r="I554" t="s">
-        <v>8</v>
+      <c r="I554">
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.25">
@@ -17042,8 +17036,8 @@
       <c r="H555">
         <v>23</v>
       </c>
-      <c r="I555" t="s">
-        <v>8</v>
+      <c r="I555">
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.25">
@@ -17071,8 +17065,8 @@
       <c r="H556">
         <v>28</v>
       </c>
-      <c r="I556" t="s">
-        <v>8</v>
+      <c r="I556">
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.25">
@@ -17100,8 +17094,8 @@
       <c r="H557">
         <v>37</v>
       </c>
-      <c r="I557" t="s">
-        <v>8</v>
+      <c r="I557">
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.25">
@@ -17129,8 +17123,8 @@
       <c r="H558">
         <v>30</v>
       </c>
-      <c r="I558" t="s">
-        <v>8</v>
+      <c r="I558">
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.25">
@@ -17158,8 +17152,8 @@
       <c r="H559">
         <v>58</v>
       </c>
-      <c r="I559" t="s">
-        <v>8</v>
+      <c r="I559">
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.25">
@@ -17187,8 +17181,8 @@
       <c r="H560">
         <v>42</v>
       </c>
-      <c r="I560" t="s">
-        <v>8</v>
+      <c r="I560">
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.25">
@@ -17216,8 +17210,8 @@
       <c r="H561">
         <v>35</v>
       </c>
-      <c r="I561" t="s">
-        <v>8</v>
+      <c r="I561">
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.25">
@@ -17245,8 +17239,8 @@
       <c r="H562">
         <v>54</v>
       </c>
-      <c r="I562" t="s">
-        <v>7</v>
+      <c r="I562">
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.25">
@@ -17274,8 +17268,8 @@
       <c r="H563">
         <v>28</v>
       </c>
-      <c r="I563" t="s">
-        <v>7</v>
+      <c r="I563">
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.25">
@@ -17303,8 +17297,8 @@
       <c r="H564">
         <v>24</v>
       </c>
-      <c r="I564" t="s">
-        <v>8</v>
+      <c r="I564">
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.25">
@@ -17332,8 +17326,8 @@
       <c r="H565">
         <v>32</v>
       </c>
-      <c r="I565" t="s">
-        <v>8</v>
+      <c r="I565">
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.25">
@@ -17361,8 +17355,8 @@
       <c r="H566">
         <v>27</v>
       </c>
-      <c r="I566" t="s">
-        <v>8</v>
+      <c r="I566">
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.25">
@@ -17390,8 +17384,8 @@
       <c r="H567">
         <v>22</v>
       </c>
-      <c r="I567" t="s">
-        <v>8</v>
+      <c r="I567">
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.25">
@@ -17419,8 +17413,8 @@
       <c r="H568">
         <v>21</v>
       </c>
-      <c r="I568" t="s">
-        <v>8</v>
+      <c r="I568">
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.25">
@@ -17448,8 +17442,8 @@
       <c r="H569">
         <v>46</v>
       </c>
-      <c r="I569" t="s">
-        <v>8</v>
+      <c r="I569">
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.25">
@@ -17477,8 +17471,8 @@
       <c r="H570">
         <v>37</v>
       </c>
-      <c r="I570" t="s">
-        <v>8</v>
+      <c r="I570">
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.25">
@@ -17506,8 +17500,8 @@
       <c r="H571">
         <v>33</v>
       </c>
-      <c r="I571" t="s">
-        <v>7</v>
+      <c r="I571">
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.25">
@@ -17535,8 +17529,8 @@
       <c r="H572">
         <v>39</v>
       </c>
-      <c r="I572" t="s">
-        <v>8</v>
+      <c r="I572">
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.25">
@@ -17564,8 +17558,8 @@
       <c r="H573">
         <v>21</v>
       </c>
-      <c r="I573" t="s">
-        <v>8</v>
+      <c r="I573">
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.25">
@@ -17593,8 +17587,8 @@
       <c r="H574">
         <v>22</v>
       </c>
-      <c r="I574" t="s">
-        <v>8</v>
+      <c r="I574">
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.25">
@@ -17622,8 +17616,8 @@
       <c r="H575">
         <v>22</v>
       </c>
-      <c r="I575" t="s">
-        <v>8</v>
+      <c r="I575">
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.25">
@@ -17651,8 +17645,8 @@
       <c r="H576">
         <v>23</v>
       </c>
-      <c r="I576" t="s">
-        <v>8</v>
+      <c r="I576">
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.25">
@@ -17680,8 +17674,8 @@
       <c r="H577">
         <v>25</v>
       </c>
-      <c r="I577" t="s">
-        <v>8</v>
+      <c r="I577">
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.25">
@@ -17709,8 +17703,8 @@
       <c r="H578">
         <v>35</v>
       </c>
-      <c r="I578" t="s">
-        <v>8</v>
+      <c r="I578">
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.25">
@@ -17738,8 +17732,8 @@
       <c r="H579">
         <v>21</v>
       </c>
-      <c r="I579" t="s">
-        <v>7</v>
+      <c r="I579">
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.25">
@@ -17767,8 +17761,8 @@
       <c r="H580">
         <v>36</v>
       </c>
-      <c r="I580" t="s">
-        <v>8</v>
+      <c r="I580">
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.25">
@@ -17796,8 +17790,8 @@
       <c r="H581">
         <v>62</v>
       </c>
-      <c r="I581" t="s">
-        <v>7</v>
+      <c r="I581">
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.25">
@@ -17825,8 +17819,8 @@
       <c r="H582">
         <v>21</v>
       </c>
-      <c r="I582" t="s">
-        <v>7</v>
+      <c r="I582">
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.25">
@@ -17854,8 +17848,8 @@
       <c r="H583">
         <v>27</v>
       </c>
-      <c r="I583" t="s">
-        <v>8</v>
+      <c r="I583">
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.25">
@@ -17883,8 +17877,8 @@
       <c r="H584">
         <v>62</v>
       </c>
-      <c r="I584" t="s">
-        <v>8</v>
+      <c r="I584">
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.25">
@@ -17912,8 +17906,8 @@
       <c r="H585">
         <v>42</v>
       </c>
-      <c r="I585" t="s">
-        <v>8</v>
+      <c r="I585">
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.25">
@@ -17941,8 +17935,8 @@
       <c r="H586">
         <v>52</v>
       </c>
-      <c r="I586" t="s">
-        <v>7</v>
+      <c r="I586">
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.25">
@@ -17970,8 +17964,8 @@
       <c r="H587">
         <v>22</v>
       </c>
-      <c r="I587" t="s">
-        <v>8</v>
+      <c r="I587">
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.25">
@@ -17999,8 +17993,8 @@
       <c r="H588">
         <v>41</v>
       </c>
-      <c r="I588" t="s">
-        <v>7</v>
+      <c r="I588">
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.25">
@@ -18028,8 +18022,8 @@
       <c r="H589">
         <v>29</v>
       </c>
-      <c r="I589" t="s">
-        <v>8</v>
+      <c r="I589">
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.25">
@@ -18057,8 +18051,8 @@
       <c r="H590">
         <v>52</v>
       </c>
-      <c r="I590" t="s">
-        <v>7</v>
+      <c r="I590">
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.25">
@@ -18086,8 +18080,8 @@
       <c r="H591">
         <v>25</v>
       </c>
-      <c r="I591" t="s">
-        <v>8</v>
+      <c r="I591">
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.25">
@@ -18115,8 +18109,8 @@
       <c r="H592">
         <v>45</v>
       </c>
-      <c r="I592" t="s">
-        <v>7</v>
+      <c r="I592">
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.25">
@@ -18144,8 +18138,8 @@
       <c r="H593">
         <v>24</v>
       </c>
-      <c r="I593" t="s">
-        <v>8</v>
+      <c r="I593">
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.25">
@@ -18173,8 +18167,8 @@
       <c r="H594">
         <v>44</v>
       </c>
-      <c r="I594" t="s">
-        <v>7</v>
+      <c r="I594">
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.25">
@@ -18202,8 +18196,8 @@
       <c r="H595">
         <v>25</v>
       </c>
-      <c r="I595" t="s">
-        <v>8</v>
+      <c r="I595">
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.25">
@@ -18231,8 +18225,8 @@
       <c r="H596">
         <v>34</v>
       </c>
-      <c r="I596" t="s">
-        <v>8</v>
+      <c r="I596">
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.25">
@@ -18260,8 +18254,8 @@
       <c r="H597">
         <v>22</v>
       </c>
-      <c r="I597" t="s">
-        <v>7</v>
+      <c r="I597">
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.25">
@@ -18289,8 +18283,8 @@
       <c r="H598">
         <v>46</v>
       </c>
-      <c r="I598" t="s">
-        <v>8</v>
+      <c r="I598">
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:9" x14ac:dyDescent="0.25">
@@ -18318,8 +18312,8 @@
       <c r="H599">
         <v>21</v>
       </c>
-      <c r="I599" t="s">
-        <v>8</v>
+      <c r="I599">
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:9" x14ac:dyDescent="0.25">
@@ -18347,8 +18341,8 @@
       <c r="H600">
         <v>38</v>
       </c>
-      <c r="I600" t="s">
-        <v>7</v>
+      <c r="I600">
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.25">
@@ -18376,8 +18370,8 @@
       <c r="H601">
         <v>26</v>
       </c>
-      <c r="I601" t="s">
-        <v>8</v>
+      <c r="I601">
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:9" x14ac:dyDescent="0.25">
@@ -18405,8 +18399,8 @@
       <c r="H602">
         <v>24</v>
       </c>
-      <c r="I602" t="s">
-        <v>8</v>
+      <c r="I602">
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.25">
@@ -18434,8 +18428,8 @@
       <c r="H603">
         <v>28</v>
       </c>
-      <c r="I603" t="s">
-        <v>8</v>
+      <c r="I603">
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.25">
@@ -18463,8 +18457,8 @@
       <c r="H604">
         <v>30</v>
       </c>
-      <c r="I604" t="s">
-        <v>8</v>
+      <c r="I604">
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.25">
@@ -18492,8 +18486,8 @@
       <c r="H605">
         <v>54</v>
       </c>
-      <c r="I605" t="s">
-        <v>7</v>
+      <c r="I605">
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:9" x14ac:dyDescent="0.25">
@@ -18521,8 +18515,8 @@
       <c r="H606">
         <v>36</v>
       </c>
-      <c r="I606" t="s">
-        <v>7</v>
+      <c r="I606">
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:9" x14ac:dyDescent="0.25">
@@ -18550,8 +18544,8 @@
       <c r="H607">
         <v>21</v>
       </c>
-      <c r="I607" t="s">
-        <v>8</v>
+      <c r="I607">
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:9" x14ac:dyDescent="0.25">
@@ -18579,8 +18573,8 @@
       <c r="H608">
         <v>22</v>
       </c>
-      <c r="I608" t="s">
-        <v>7</v>
+      <c r="I608">
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.25">
@@ -18608,8 +18602,8 @@
       <c r="H609">
         <v>25</v>
       </c>
-      <c r="I609" t="s">
-        <v>8</v>
+      <c r="I609">
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.25">
@@ -18637,8 +18631,8 @@
       <c r="H610">
         <v>27</v>
       </c>
-      <c r="I610" t="s">
-        <v>8</v>
+      <c r="I610">
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.25">
@@ -18666,8 +18660,8 @@
       <c r="H611">
         <v>23</v>
       </c>
-      <c r="I611" t="s">
-        <v>8</v>
+      <c r="I611">
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.25">
@@ -18695,8 +18689,8 @@
       <c r="H612">
         <v>24</v>
       </c>
-      <c r="I612" t="s">
-        <v>8</v>
+      <c r="I612">
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:9" x14ac:dyDescent="0.25">
@@ -18724,8 +18718,8 @@
       <c r="H613">
         <v>36</v>
       </c>
-      <c r="I613" t="s">
-        <v>7</v>
+      <c r="I613">
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.25">
@@ -18753,8 +18747,8 @@
       <c r="H614">
         <v>40</v>
       </c>
-      <c r="I614" t="s">
-        <v>7</v>
+      <c r="I614">
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.25">
@@ -18782,8 +18776,8 @@
       <c r="H615">
         <v>26</v>
       </c>
-      <c r="I615" t="s">
-        <v>8</v>
+      <c r="I615">
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.25">
@@ -18811,8 +18805,8 @@
       <c r="H616">
         <v>50</v>
       </c>
-      <c r="I616" t="s">
-        <v>7</v>
+      <c r="I616">
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.25">
@@ -18840,8 +18834,8 @@
       <c r="H617">
         <v>27</v>
       </c>
-      <c r="I617" t="s">
-        <v>8</v>
+      <c r="I617">
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:9" x14ac:dyDescent="0.25">
@@ -18869,8 +18863,8 @@
       <c r="H618">
         <v>30</v>
       </c>
-      <c r="I618" t="s">
-        <v>8</v>
+      <c r="I618">
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.25">
@@ -18898,8 +18892,8 @@
       <c r="H619">
         <v>23</v>
       </c>
-      <c r="I619" t="s">
-        <v>8</v>
+      <c r="I619">
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.25">
@@ -18927,8 +18921,8 @@
       <c r="H620">
         <v>50</v>
       </c>
-      <c r="I620" t="s">
-        <v>7</v>
+      <c r="I620">
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.25">
@@ -18956,8 +18950,8 @@
       <c r="H621">
         <v>24</v>
       </c>
-      <c r="I621" t="s">
-        <v>7</v>
+      <c r="I621">
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.25">
@@ -18985,8 +18979,8 @@
       <c r="H622">
         <v>28</v>
       </c>
-      <c r="I622" t="s">
-        <v>8</v>
+      <c r="I622">
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.25">
@@ -19014,8 +19008,8 @@
       <c r="H623">
         <v>28</v>
       </c>
-      <c r="I623" t="s">
-        <v>8</v>
+      <c r="I623">
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.25">
@@ -19043,8 +19037,8 @@
       <c r="H624">
         <v>45</v>
       </c>
-      <c r="I624" t="s">
-        <v>8</v>
+      <c r="I624">
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:9" x14ac:dyDescent="0.25">
@@ -19072,8 +19066,8 @@
       <c r="H625">
         <v>21</v>
       </c>
-      <c r="I625" t="s">
-        <v>8</v>
+      <c r="I625">
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:9" x14ac:dyDescent="0.25">
@@ -19101,8 +19095,8 @@
       <c r="H626">
         <v>21</v>
       </c>
-      <c r="I626" t="s">
-        <v>8</v>
+      <c r="I626">
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:9" x14ac:dyDescent="0.25">
@@ -19130,8 +19124,8 @@
       <c r="H627">
         <v>29</v>
       </c>
-      <c r="I627" t="s">
-        <v>8</v>
+      <c r="I627">
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:9" x14ac:dyDescent="0.25">
@@ -19159,8 +19153,8 @@
       <c r="H628">
         <v>21</v>
       </c>
-      <c r="I628" t="s">
-        <v>8</v>
+      <c r="I628">
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:9" x14ac:dyDescent="0.25">
@@ -19188,8 +19182,8 @@
       <c r="H629">
         <v>21</v>
       </c>
-      <c r="I629" t="s">
-        <v>8</v>
+      <c r="I629">
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:9" x14ac:dyDescent="0.25">
@@ -19217,8 +19211,8 @@
       <c r="H630">
         <v>45</v>
       </c>
-      <c r="I630" t="s">
-        <v>8</v>
+      <c r="I630">
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:9" x14ac:dyDescent="0.25">
@@ -19246,8 +19240,8 @@
       <c r="H631">
         <v>21</v>
       </c>
-      <c r="I631" t="s">
-        <v>8</v>
+      <c r="I631">
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:9" x14ac:dyDescent="0.25">
@@ -19275,8 +19269,8 @@
       <c r="H632">
         <v>34</v>
       </c>
-      <c r="I632" t="s">
-        <v>7</v>
+      <c r="I632">
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:9" x14ac:dyDescent="0.25">
@@ -19304,8 +19298,8 @@
       <c r="H633">
         <v>24</v>
       </c>
-      <c r="I633" t="s">
-        <v>8</v>
+      <c r="I633">
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:9" x14ac:dyDescent="0.25">
@@ -19333,8 +19327,8 @@
       <c r="H634">
         <v>23</v>
       </c>
-      <c r="I634" t="s">
-        <v>8</v>
+      <c r="I634">
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:9" x14ac:dyDescent="0.25">
@@ -19362,8 +19356,8 @@
       <c r="H635">
         <v>22</v>
       </c>
-      <c r="I635" t="s">
-        <v>8</v>
+      <c r="I635">
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:9" x14ac:dyDescent="0.25">
@@ -19391,8 +19385,8 @@
       <c r="H636">
         <v>31</v>
       </c>
-      <c r="I636" t="s">
-        <v>8</v>
+      <c r="I636">
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:9" x14ac:dyDescent="0.25">
@@ -19420,8 +19414,8 @@
       <c r="H637">
         <v>38</v>
       </c>
-      <c r="I637" t="s">
-        <v>7</v>
+      <c r="I637">
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.25">
@@ -19449,8 +19443,8 @@
       <c r="H638">
         <v>48</v>
       </c>
-      <c r="I638" t="s">
-        <v>8</v>
+      <c r="I638">
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.25">
@@ -19478,8 +19472,8 @@
       <c r="H639">
         <v>23</v>
       </c>
-      <c r="I639" t="s">
-        <v>8</v>
+      <c r="I639">
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.25">
@@ -19507,8 +19501,8 @@
       <c r="H640">
         <v>32</v>
       </c>
-      <c r="I640" t="s">
-        <v>7</v>
+      <c r="I640">
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.25">
@@ -19536,8 +19530,8 @@
       <c r="H641">
         <v>28</v>
       </c>
-      <c r="I641" t="s">
-        <v>8</v>
+      <c r="I641">
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:9" x14ac:dyDescent="0.25">
@@ -19565,8 +19559,8 @@
       <c r="H642">
         <v>27</v>
       </c>
-      <c r="I642" t="s">
-        <v>8</v>
+      <c r="I642">
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:9" x14ac:dyDescent="0.25">
@@ -19594,8 +19588,8 @@
       <c r="H643">
         <v>24</v>
       </c>
-      <c r="I643" t="s">
-        <v>8</v>
+      <c r="I643">
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.25">
@@ -19623,8 +19617,8 @@
       <c r="H644">
         <v>50</v>
       </c>
-      <c r="I644" t="s">
-        <v>7</v>
+      <c r="I644">
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.25">
@@ -19652,8 +19646,8 @@
       <c r="H645">
         <v>31</v>
       </c>
-      <c r="I645" t="s">
-        <v>8</v>
+      <c r="I645">
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:9" x14ac:dyDescent="0.25">
@@ -19681,8 +19675,8 @@
       <c r="H646">
         <v>27</v>
       </c>
-      <c r="I646" t="s">
-        <v>8</v>
+      <c r="I646">
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.25">
@@ -19710,8 +19704,8 @@
       <c r="H647">
         <v>30</v>
       </c>
-      <c r="I647" t="s">
-        <v>8</v>
+      <c r="I647">
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:9" x14ac:dyDescent="0.25">
@@ -19739,8 +19733,8 @@
       <c r="H648">
         <v>33</v>
       </c>
-      <c r="I648" t="s">
-        <v>7</v>
+      <c r="I648">
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:9" x14ac:dyDescent="0.25">
@@ -19768,8 +19762,8 @@
       <c r="H649">
         <v>22</v>
       </c>
-      <c r="I649" t="s">
-        <v>7</v>
+      <c r="I649">
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:9" x14ac:dyDescent="0.25">
@@ -19797,8 +19791,8 @@
       <c r="H650">
         <v>42</v>
       </c>
-      <c r="I650" t="s">
-        <v>7</v>
+      <c r="I650">
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:9" x14ac:dyDescent="0.25">
@@ -19826,8 +19820,8 @@
       <c r="H651">
         <v>23</v>
       </c>
-      <c r="I651" t="s">
-        <v>8</v>
+      <c r="I651">
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:9" x14ac:dyDescent="0.25">
@@ -19855,8 +19849,8 @@
       <c r="H652">
         <v>23</v>
       </c>
-      <c r="I652" t="s">
-        <v>8</v>
+      <c r="I652">
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:9" x14ac:dyDescent="0.25">
@@ -19884,8 +19878,8 @@
       <c r="H653">
         <v>27</v>
       </c>
-      <c r="I653" t="s">
-        <v>8</v>
+      <c r="I653">
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:9" x14ac:dyDescent="0.25">
@@ -19913,8 +19907,8 @@
       <c r="H654">
         <v>28</v>
       </c>
-      <c r="I654" t="s">
-        <v>8</v>
+      <c r="I654">
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:9" x14ac:dyDescent="0.25">
@@ -19942,8 +19936,8 @@
       <c r="H655">
         <v>27</v>
       </c>
-      <c r="I655" t="s">
-        <v>8</v>
+      <c r="I655">
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:9" x14ac:dyDescent="0.25">
@@ -19971,8 +19965,8 @@
       <c r="H656">
         <v>22</v>
       </c>
-      <c r="I656" t="s">
-        <v>8</v>
+      <c r="I656">
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:9" x14ac:dyDescent="0.25">
@@ -20000,8 +19994,8 @@
       <c r="H657">
         <v>25</v>
       </c>
-      <c r="I657" t="s">
-        <v>7</v>
+      <c r="I657">
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:9" x14ac:dyDescent="0.25">
@@ -20029,8 +20023,8 @@
       <c r="H658">
         <v>22</v>
       </c>
-      <c r="I658" t="s">
-        <v>8</v>
+      <c r="I658">
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:9" x14ac:dyDescent="0.25">
@@ -20058,8 +20052,8 @@
       <c r="H659">
         <v>41</v>
       </c>
-      <c r="I659" t="s">
-        <v>8</v>
+      <c r="I659">
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:9" x14ac:dyDescent="0.25">
@@ -20087,8 +20081,8 @@
       <c r="H660">
         <v>51</v>
       </c>
-      <c r="I660" t="s">
-        <v>8</v>
+      <c r="I660">
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:9" x14ac:dyDescent="0.25">
@@ -20116,8 +20110,8 @@
       <c r="H661">
         <v>27</v>
       </c>
-      <c r="I661" t="s">
-        <v>7</v>
+      <c r="I661">
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:9" x14ac:dyDescent="0.25">
@@ -20145,8 +20139,8 @@
       <c r="H662">
         <v>54</v>
       </c>
-      <c r="I662" t="s">
-        <v>8</v>
+      <c r="I662">
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:9" x14ac:dyDescent="0.25">
@@ -20174,8 +20168,8 @@
       <c r="H663">
         <v>22</v>
       </c>
-      <c r="I663" t="s">
-        <v>7</v>
+      <c r="I663">
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:9" x14ac:dyDescent="0.25">
@@ -20203,8 +20197,8 @@
       <c r="H664">
         <v>43</v>
       </c>
-      <c r="I664" t="s">
-        <v>7</v>
+      <c r="I664">
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:9" x14ac:dyDescent="0.25">
@@ -20232,8 +20226,8 @@
       <c r="H665">
         <v>40</v>
       </c>
-      <c r="I665" t="s">
-        <v>7</v>
+      <c r="I665">
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:9" x14ac:dyDescent="0.25">
@@ -20261,8 +20255,8 @@
       <c r="H666">
         <v>40</v>
       </c>
-      <c r="I666" t="s">
-        <v>7</v>
+      <c r="I666">
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:9" x14ac:dyDescent="0.25">
@@ -20290,8 +20284,8 @@
       <c r="H667">
         <v>24</v>
       </c>
-      <c r="I667" t="s">
-        <v>8</v>
+      <c r="I667">
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:9" x14ac:dyDescent="0.25">
@@ -20319,8 +20313,8 @@
       <c r="H668">
         <v>70</v>
       </c>
-      <c r="I668" t="s">
-        <v>7</v>
+      <c r="I668">
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:9" x14ac:dyDescent="0.25">
@@ -20348,8 +20342,8 @@
       <c r="H669">
         <v>40</v>
       </c>
-      <c r="I669" t="s">
-        <v>7</v>
+      <c r="I669">
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:9" x14ac:dyDescent="0.25">
@@ -20377,8 +20371,8 @@
       <c r="H670">
         <v>43</v>
       </c>
-      <c r="I670" t="s">
-        <v>8</v>
+      <c r="I670">
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:9" x14ac:dyDescent="0.25">
@@ -20406,8 +20400,8 @@
       <c r="H671">
         <v>45</v>
       </c>
-      <c r="I671" t="s">
-        <v>8</v>
+      <c r="I671">
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:9" x14ac:dyDescent="0.25">
@@ -20435,8 +20429,8 @@
       <c r="H672">
         <v>49</v>
       </c>
-      <c r="I672" t="s">
-        <v>8</v>
+      <c r="I672">
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:9" x14ac:dyDescent="0.25">
@@ -20464,8 +20458,8 @@
       <c r="H673">
         <v>21</v>
       </c>
-      <c r="I673" t="s">
-        <v>8</v>
+      <c r="I673">
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:9" x14ac:dyDescent="0.25">
@@ -20493,8 +20487,8 @@
       <c r="H674">
         <v>47</v>
       </c>
-      <c r="I674" t="s">
-        <v>8</v>
+      <c r="I674">
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:9" x14ac:dyDescent="0.25">
@@ -20522,8 +20516,8 @@
       <c r="H675">
         <v>22</v>
       </c>
-      <c r="I675" t="s">
-        <v>8</v>
+      <c r="I675">
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:9" x14ac:dyDescent="0.25">
@@ -20551,8 +20545,8 @@
       <c r="H676">
         <v>68</v>
       </c>
-      <c r="I676" t="s">
-        <v>8</v>
+      <c r="I676">
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:9" x14ac:dyDescent="0.25">
@@ -20580,8 +20574,8 @@
       <c r="H677">
         <v>31</v>
       </c>
-      <c r="I677" t="s">
-        <v>7</v>
+      <c r="I677">
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:9" x14ac:dyDescent="0.25">
@@ -20609,8 +20603,8 @@
       <c r="H678">
         <v>53</v>
       </c>
-      <c r="I678" t="s">
-        <v>7</v>
+      <c r="I678">
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:9" x14ac:dyDescent="0.25">
@@ -20638,8 +20632,8 @@
       <c r="H679">
         <v>25</v>
       </c>
-      <c r="I679" t="s">
-        <v>8</v>
+      <c r="I679">
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:9" x14ac:dyDescent="0.25">
@@ -20667,8 +20661,8 @@
       <c r="H680">
         <v>25</v>
       </c>
-      <c r="I680" t="s">
-        <v>7</v>
+      <c r="I680">
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:9" x14ac:dyDescent="0.25">
@@ -20696,8 +20690,8 @@
       <c r="H681">
         <v>23</v>
       </c>
-      <c r="I681" t="s">
-        <v>8</v>
+      <c r="I681">
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:9" x14ac:dyDescent="0.25">
@@ -20725,8 +20719,8 @@
       <c r="H682">
         <v>22</v>
       </c>
-      <c r="I682" t="s">
-        <v>8</v>
+      <c r="I682">
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:9" x14ac:dyDescent="0.25">
@@ -20754,8 +20748,8 @@
       <c r="H683">
         <v>26</v>
       </c>
-      <c r="I683" t="s">
-        <v>7</v>
+      <c r="I683">
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:9" x14ac:dyDescent="0.25">
@@ -20783,8 +20777,8 @@
       <c r="H684">
         <v>22</v>
       </c>
-      <c r="I684" t="s">
-        <v>8</v>
+      <c r="I684">
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:9" x14ac:dyDescent="0.25">
@@ -20812,8 +20806,8 @@
       <c r="H685">
         <v>27</v>
       </c>
-      <c r="I685" t="s">
-        <v>7</v>
+      <c r="I685">
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:9" x14ac:dyDescent="0.25">
@@ -20841,8 +20835,8 @@
       <c r="H686">
         <v>69</v>
       </c>
-      <c r="I686" t="s">
-        <v>8</v>
+      <c r="I686">
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:9" x14ac:dyDescent="0.25">
@@ -20870,8 +20864,8 @@
       <c r="H687">
         <v>25</v>
       </c>
-      <c r="I687" t="s">
-        <v>8</v>
+      <c r="I687">
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:9" x14ac:dyDescent="0.25">
@@ -20899,8 +20893,8 @@
       <c r="H688">
         <v>22</v>
       </c>
-      <c r="I688" t="s">
-        <v>8</v>
+      <c r="I688">
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:9" x14ac:dyDescent="0.25">
@@ -20928,8 +20922,8 @@
       <c r="H689">
         <v>29</v>
       </c>
-      <c r="I689" t="s">
-        <v>8</v>
+      <c r="I689">
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:9" x14ac:dyDescent="0.25">
@@ -20957,8 +20951,8 @@
       <c r="H690">
         <v>23</v>
       </c>
-      <c r="I690" t="s">
-        <v>8</v>
+      <c r="I690">
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:9" x14ac:dyDescent="0.25">
@@ -20986,8 +20980,8 @@
       <c r="H691">
         <v>46</v>
       </c>
-      <c r="I691" t="s">
-        <v>7</v>
+      <c r="I691">
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:9" x14ac:dyDescent="0.25">
@@ -21015,8 +21009,8 @@
       <c r="H692">
         <v>34</v>
       </c>
-      <c r="I692" t="s">
-        <v>8</v>
+      <c r="I692">
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:9" x14ac:dyDescent="0.25">
@@ -21044,8 +21038,8 @@
       <c r="H693">
         <v>44</v>
       </c>
-      <c r="I693" t="s">
-        <v>7</v>
+      <c r="I693">
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:9" x14ac:dyDescent="0.25">
@@ -21073,8 +21067,8 @@
       <c r="H694">
         <v>23</v>
       </c>
-      <c r="I694" t="s">
-        <v>8</v>
+      <c r="I694">
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:9" x14ac:dyDescent="0.25">
@@ -21102,8 +21096,8 @@
       <c r="H695">
         <v>43</v>
       </c>
-      <c r="I695" t="s">
-        <v>7</v>
+      <c r="I695">
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:9" x14ac:dyDescent="0.25">
@@ -21131,8 +21125,8 @@
       <c r="H696">
         <v>25</v>
       </c>
-      <c r="I696" t="s">
-        <v>8</v>
+      <c r="I696">
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:9" x14ac:dyDescent="0.25">
@@ -21160,8 +21154,8 @@
       <c r="H697">
         <v>43</v>
       </c>
-      <c r="I697" t="s">
-        <v>7</v>
+      <c r="I697">
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:9" x14ac:dyDescent="0.25">
@@ -21189,8 +21183,8 @@
       <c r="H698">
         <v>31</v>
       </c>
-      <c r="I698" t="s">
-        <v>7</v>
+      <c r="I698">
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:9" x14ac:dyDescent="0.25">
@@ -21218,8 +21212,8 @@
       <c r="H699">
         <v>22</v>
       </c>
-      <c r="I699" t="s">
-        <v>8</v>
+      <c r="I699">
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:9" x14ac:dyDescent="0.25">
@@ -21247,8 +21241,8 @@
       <c r="H700">
         <v>28</v>
       </c>
-      <c r="I700" t="s">
-        <v>8</v>
+      <c r="I700">
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:9" x14ac:dyDescent="0.25">
@@ -21276,8 +21270,8 @@
       <c r="H701">
         <v>26</v>
       </c>
-      <c r="I701" t="s">
-        <v>8</v>
+      <c r="I701">
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:9" x14ac:dyDescent="0.25">
@@ -21305,8 +21299,8 @@
       <c r="H702">
         <v>26</v>
       </c>
-      <c r="I702" t="s">
-        <v>8</v>
+      <c r="I702">
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:9" x14ac:dyDescent="0.25">
@@ -21334,8 +21328,8 @@
       <c r="H703">
         <v>49</v>
       </c>
-      <c r="I703" t="s">
-        <v>7</v>
+      <c r="I703">
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:9" x14ac:dyDescent="0.25">
@@ -21363,8 +21357,8 @@
       <c r="H704">
         <v>52</v>
       </c>
-      <c r="I704" t="s">
-        <v>7</v>
+      <c r="I704">
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:9" x14ac:dyDescent="0.25">
@@ -21392,8 +21386,8 @@
       <c r="H705">
         <v>41</v>
       </c>
-      <c r="I705" t="s">
-        <v>8</v>
+      <c r="I705">
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:9" x14ac:dyDescent="0.25">
@@ -21421,8 +21415,8 @@
       <c r="H706">
         <v>27</v>
       </c>
-      <c r="I706" t="s">
-        <v>8</v>
+      <c r="I706">
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:9" x14ac:dyDescent="0.25">
@@ -21450,8 +21444,8 @@
       <c r="H707">
         <v>28</v>
       </c>
-      <c r="I707" t="s">
-        <v>8</v>
+      <c r="I707">
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:9" x14ac:dyDescent="0.25">
@@ -21479,8 +21473,8 @@
       <c r="H708">
         <v>30</v>
       </c>
-      <c r="I708" t="s">
-        <v>7</v>
+      <c r="I708">
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:9" x14ac:dyDescent="0.25">
@@ -21508,8 +21502,8 @@
       <c r="H709">
         <v>22</v>
       </c>
-      <c r="I709" t="s">
-        <v>8</v>
+      <c r="I709">
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:9" x14ac:dyDescent="0.25">
@@ -21537,8 +21531,8 @@
       <c r="H710">
         <v>45</v>
       </c>
-      <c r="I710" t="s">
-        <v>7</v>
+      <c r="I710">
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:9" x14ac:dyDescent="0.25">
@@ -21566,8 +21560,8 @@
       <c r="H711">
         <v>23</v>
       </c>
-      <c r="I711" t="s">
-        <v>7</v>
+      <c r="I711">
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:9" x14ac:dyDescent="0.25">
@@ -21595,8 +21589,8 @@
       <c r="H712">
         <v>24</v>
       </c>
-      <c r="I712" t="s">
-        <v>8</v>
+      <c r="I712">
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:9" x14ac:dyDescent="0.25">
@@ -21624,8 +21618,8 @@
       <c r="H713">
         <v>40</v>
       </c>
-      <c r="I713" t="s">
-        <v>8</v>
+      <c r="I713">
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:9" x14ac:dyDescent="0.25">
@@ -21653,8 +21647,8 @@
       <c r="H714">
         <v>38</v>
       </c>
-      <c r="I714" t="s">
-        <v>7</v>
+      <c r="I714">
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:9" x14ac:dyDescent="0.25">
@@ -21682,8 +21676,8 @@
       <c r="H715">
         <v>21</v>
       </c>
-      <c r="I715" t="s">
-        <v>8</v>
+      <c r="I715">
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:9" x14ac:dyDescent="0.25">
@@ -21711,8 +21705,8 @@
       <c r="H716">
         <v>32</v>
       </c>
-      <c r="I716" t="s">
-        <v>8</v>
+      <c r="I716">
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:9" x14ac:dyDescent="0.25">
@@ -21740,8 +21734,8 @@
       <c r="H717">
         <v>34</v>
       </c>
-      <c r="I717" t="s">
-        <v>7</v>
+      <c r="I717">
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:9" x14ac:dyDescent="0.25">
@@ -21769,8 +21763,8 @@
       <c r="H718">
         <v>31</v>
       </c>
-      <c r="I718" t="s">
-        <v>7</v>
+      <c r="I718">
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:9" x14ac:dyDescent="0.25">
@@ -21798,8 +21792,8 @@
       <c r="H719">
         <v>56</v>
       </c>
-      <c r="I719" t="s">
-        <v>8</v>
+      <c r="I719">
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:9" x14ac:dyDescent="0.25">
@@ -21827,8 +21821,8 @@
       <c r="H720">
         <v>24</v>
       </c>
-      <c r="I720" t="s">
-        <v>8</v>
+      <c r="I720">
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:9" x14ac:dyDescent="0.25">
@@ -21856,8 +21850,8 @@
       <c r="H721">
         <v>52</v>
       </c>
-      <c r="I721" t="s">
-        <v>7</v>
+      <c r="I721">
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:9" x14ac:dyDescent="0.25">
@@ -21885,8 +21879,8 @@
       <c r="H722">
         <v>34</v>
       </c>
-      <c r="I722" t="s">
-        <v>8</v>
+      <c r="I722">
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:9" x14ac:dyDescent="0.25">
@@ -21914,8 +21908,8 @@
       <c r="H723">
         <v>21</v>
       </c>
-      <c r="I723" t="s">
-        <v>8</v>
+      <c r="I723">
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:9" x14ac:dyDescent="0.25">
@@ -21943,8 +21937,8 @@
       <c r="H724">
         <v>42</v>
       </c>
-      <c r="I724" t="s">
-        <v>7</v>
+      <c r="I724">
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:9" x14ac:dyDescent="0.25">
@@ -21972,8 +21966,8 @@
       <c r="H725">
         <v>42</v>
       </c>
-      <c r="I725" t="s">
-        <v>8</v>
+      <c r="I725">
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:9" x14ac:dyDescent="0.25">
@@ -22001,8 +21995,8 @@
       <c r="H726">
         <v>45</v>
       </c>
-      <c r="I726" t="s">
-        <v>8</v>
+      <c r="I726">
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:9" x14ac:dyDescent="0.25">
@@ -22030,8 +22024,8 @@
       <c r="H727">
         <v>38</v>
       </c>
-      <c r="I727" t="s">
-        <v>8</v>
+      <c r="I727">
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:9" x14ac:dyDescent="0.25">
@@ -22059,8 +22053,8 @@
       <c r="H728">
         <v>25</v>
       </c>
-      <c r="I728" t="s">
-        <v>8</v>
+      <c r="I728">
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:9" x14ac:dyDescent="0.25">
@@ -22088,8 +22082,8 @@
       <c r="H729">
         <v>22</v>
       </c>
-      <c r="I729" t="s">
-        <v>8</v>
+      <c r="I729">
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:9" x14ac:dyDescent="0.25">
@@ -22117,8 +22111,8 @@
       <c r="H730">
         <v>22</v>
       </c>
-      <c r="I730" t="s">
-        <v>8</v>
+      <c r="I730">
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:9" x14ac:dyDescent="0.25">
@@ -22146,8 +22140,8 @@
       <c r="H731">
         <v>22</v>
       </c>
-      <c r="I731" t="s">
-        <v>8</v>
+      <c r="I731">
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:9" x14ac:dyDescent="0.25">
@@ -22175,8 +22169,8 @@
       <c r="H732">
         <v>34</v>
       </c>
-      <c r="I732" t="s">
-        <v>7</v>
+      <c r="I732">
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:9" x14ac:dyDescent="0.25">
@@ -22204,8 +22198,8 @@
       <c r="H733">
         <v>22</v>
       </c>
-      <c r="I733" t="s">
-        <v>7</v>
+      <c r="I733">
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:9" x14ac:dyDescent="0.25">
@@ -22233,8 +22227,8 @@
       <c r="H734">
         <v>24</v>
       </c>
-      <c r="I734" t="s">
-        <v>7</v>
+      <c r="I734">
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:9" x14ac:dyDescent="0.25">
@@ -22262,8 +22256,8 @@
       <c r="H735">
         <v>22</v>
       </c>
-      <c r="I735" t="s">
-        <v>8</v>
+      <c r="I735">
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:9" x14ac:dyDescent="0.25">
@@ -22291,8 +22285,8 @@
       <c r="H736">
         <v>53</v>
       </c>
-      <c r="I736" t="s">
-        <v>8</v>
+      <c r="I736">
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:9" x14ac:dyDescent="0.25">
@@ -22320,8 +22314,8 @@
       <c r="H737">
         <v>28</v>
       </c>
-      <c r="I737" t="s">
-        <v>8</v>
+      <c r="I737">
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:9" x14ac:dyDescent="0.25">
@@ -22349,8 +22343,8 @@
       <c r="H738">
         <v>21</v>
       </c>
-      <c r="I738" t="s">
-        <v>8</v>
+      <c r="I738">
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:9" x14ac:dyDescent="0.25">
@@ -22378,8 +22372,8 @@
       <c r="H739">
         <v>42</v>
       </c>
-      <c r="I739" t="s">
-        <v>8</v>
+      <c r="I739">
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:9" x14ac:dyDescent="0.25">
@@ -22407,8 +22401,8 @@
       <c r="H740">
         <v>21</v>
       </c>
-      <c r="I740" t="s">
-        <v>8</v>
+      <c r="I740">
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:9" x14ac:dyDescent="0.25">
@@ -22436,8 +22430,8 @@
       <c r="H741">
         <v>42</v>
       </c>
-      <c r="I741" t="s">
-        <v>7</v>
+      <c r="I741">
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:9" x14ac:dyDescent="0.25">
@@ -22465,8 +22459,8 @@
       <c r="H742">
         <v>48</v>
       </c>
-      <c r="I742" t="s">
-        <v>7</v>
+      <c r="I742">
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:9" x14ac:dyDescent="0.25">
@@ -22494,8 +22488,8 @@
       <c r="H743">
         <v>26</v>
       </c>
-      <c r="I743" t="s">
-        <v>8</v>
+      <c r="I743">
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:9" x14ac:dyDescent="0.25">
@@ -22523,8 +22517,8 @@
       <c r="H744">
         <v>22</v>
       </c>
-      <c r="I744" t="s">
-        <v>8</v>
+      <c r="I744">
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:9" x14ac:dyDescent="0.25">
@@ -22552,8 +22546,8 @@
       <c r="H745">
         <v>45</v>
       </c>
-      <c r="I745" t="s">
-        <v>7</v>
+      <c r="I745">
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:9" x14ac:dyDescent="0.25">
@@ -22581,8 +22575,8 @@
       <c r="H746">
         <v>39</v>
       </c>
-      <c r="I746" t="s">
-        <v>8</v>
+      <c r="I746">
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:9" x14ac:dyDescent="0.25">
@@ -22610,8 +22604,8 @@
       <c r="H747">
         <v>46</v>
       </c>
-      <c r="I747" t="s">
-        <v>8</v>
+      <c r="I747">
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:9" x14ac:dyDescent="0.25">
@@ -22639,8 +22633,8 @@
       <c r="H748">
         <v>27</v>
       </c>
-      <c r="I748" t="s">
-        <v>7</v>
+      <c r="I748">
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:9" x14ac:dyDescent="0.25">
@@ -22668,8 +22662,8 @@
       <c r="H749">
         <v>32</v>
       </c>
-      <c r="I749" t="s">
-        <v>8</v>
+      <c r="I749">
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:9" x14ac:dyDescent="0.25">
@@ -22697,8 +22691,8 @@
       <c r="H750">
         <v>36</v>
       </c>
-      <c r="I750" t="s">
-        <v>7</v>
+      <c r="I750">
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:9" x14ac:dyDescent="0.25">
@@ -22726,8 +22720,8 @@
       <c r="H751">
         <v>50</v>
       </c>
-      <c r="I751" t="s">
-        <v>7</v>
+      <c r="I751">
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:9" x14ac:dyDescent="0.25">
@@ -22755,8 +22749,8 @@
       <c r="H752">
         <v>22</v>
       </c>
-      <c r="I752" t="s">
-        <v>7</v>
+      <c r="I752">
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:9" x14ac:dyDescent="0.25">
@@ -22784,8 +22778,8 @@
       <c r="H753">
         <v>28</v>
       </c>
-      <c r="I753" t="s">
-        <v>8</v>
+      <c r="I753">
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:9" x14ac:dyDescent="0.25">
@@ -22813,8 +22807,8 @@
       <c r="H754">
         <v>25</v>
       </c>
-      <c r="I754" t="s">
-        <v>8</v>
+      <c r="I754">
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:9" x14ac:dyDescent="0.25">
@@ -22842,8 +22836,8 @@
       <c r="H755">
         <v>26</v>
       </c>
-      <c r="I755" t="s">
-        <v>7</v>
+      <c r="I755">
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:9" x14ac:dyDescent="0.25">
@@ -22871,8 +22865,8 @@
       <c r="H756">
         <v>45</v>
       </c>
-      <c r="I756" t="s">
-        <v>7</v>
+      <c r="I756">
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:9" x14ac:dyDescent="0.25">
@@ -22900,8 +22894,8 @@
       <c r="H757">
         <v>37</v>
       </c>
-      <c r="I757" t="s">
-        <v>7</v>
+      <c r="I757">
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:9" x14ac:dyDescent="0.25">
@@ -22929,8 +22923,8 @@
       <c r="H758">
         <v>39</v>
       </c>
-      <c r="I758" t="s">
-        <v>8</v>
+      <c r="I758">
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:9" x14ac:dyDescent="0.25">
@@ -22958,8 +22952,8 @@
       <c r="H759">
         <v>52</v>
       </c>
-      <c r="I759" t="s">
-        <v>7</v>
+      <c r="I759">
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:9" x14ac:dyDescent="0.25">
@@ -22987,8 +22981,8 @@
       <c r="H760">
         <v>26</v>
       </c>
-      <c r="I760" t="s">
-        <v>8</v>
+      <c r="I760">
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:9" x14ac:dyDescent="0.25">
@@ -23016,8 +23010,8 @@
       <c r="H761">
         <v>66</v>
       </c>
-      <c r="I761" t="s">
-        <v>7</v>
+      <c r="I761">
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:9" x14ac:dyDescent="0.25">
@@ -23045,8 +23039,8 @@
       <c r="H762">
         <v>22</v>
       </c>
-      <c r="I762" t="s">
-        <v>8</v>
+      <c r="I762">
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:9" x14ac:dyDescent="0.25">
@@ -23074,8 +23068,8 @@
       <c r="H763">
         <v>43</v>
       </c>
-      <c r="I763" t="s">
-        <v>7</v>
+      <c r="I763">
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:9" x14ac:dyDescent="0.25">
@@ -23103,8 +23097,8 @@
       <c r="H764">
         <v>33</v>
       </c>
-      <c r="I764" t="s">
-        <v>8</v>
+      <c r="I764">
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:9" x14ac:dyDescent="0.25">
@@ -23132,8 +23126,8 @@
       <c r="H765">
         <v>63</v>
       </c>
-      <c r="I765" t="s">
-        <v>8</v>
+      <c r="I765">
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:9" x14ac:dyDescent="0.25">
@@ -23161,8 +23155,8 @@
       <c r="H766">
         <v>27</v>
       </c>
-      <c r="I766" t="s">
-        <v>8</v>
+      <c r="I766">
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:9" x14ac:dyDescent="0.25">
@@ -23190,8 +23184,8 @@
       <c r="H767">
         <v>30</v>
       </c>
-      <c r="I767" t="s">
-        <v>8</v>
+      <c r="I767">
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:9" x14ac:dyDescent="0.25">
@@ -23219,8 +23213,8 @@
       <c r="H768">
         <v>47</v>
       </c>
-      <c r="I768" t="s">
-        <v>7</v>
+      <c r="I768">
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:9" x14ac:dyDescent="0.25">
@@ -23248,8 +23242,8 @@
       <c r="H769">
         <v>23</v>
       </c>
-      <c r="I769" t="s">
-        <v>8</v>
+      <c r="I769">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
